--- a/tests/regression_data_linux/performance_analysis_critical_mass_flow_rate_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_critical_mass_flow_rate_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.015427050071353</v>
+        <v>2.015430901725469</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999948587</v>
+        <v>2.299999999871287</v>
       </c>
       <c r="D2" t="n">
-        <v>2.740246985832427</v>
+        <v>2.740321483815446</v>
       </c>
       <c r="E2" t="n">
-        <v>92.55823411847085</v>
+        <v>92.56846069051682</v>
       </c>
       <c r="F2" t="n">
-        <v>79.08749275163942</v>
+        <v>79.09674004834217</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1455380117731008</v>
+        <v>0.1455325122799062</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.23303076341251</v>
+        <v>-78.24227256062207</v>
       </c>
       <c r="I2" t="n">
-        <v>136184.1927190292</v>
+        <v>136203.8188586157</v>
       </c>
       <c r="J2" t="n">
-        <v>83.70263842595527</v>
+        <v>83.71470120382035</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-24.35331109148995</v>
+        <v>-24.3503949775287</v>
       </c>
       <c r="M2" t="n">
-        <v>135.2439382686703</v>
+        <v>135.241382990721</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372086.6507705649</v>
+        <v>372080.8398628716</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7159934126386097</v>
+        <v>0.7160031452836675</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.069523116648688</v>
+        <v>2.069524535997542</v>
       </c>
       <c r="C3" t="n">
-        <v>2.40000000000666</v>
+        <v>2.399999999880155</v>
       </c>
       <c r="D3" t="n">
-        <v>2.742649141130225</v>
+        <v>2.742744876572387</v>
       </c>
       <c r="E3" t="n">
-        <v>92.53013773158288</v>
+        <v>92.54449171122064</v>
       </c>
       <c r="F3" t="n">
-        <v>78.20472735235492</v>
+        <v>78.21741174690735</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1548188593513608</v>
+        <v>0.154812887286907</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.35954621170629</v>
+        <v>-77.37222463419425</v>
       </c>
       <c r="I3" t="n">
-        <v>140842.5889607254</v>
+        <v>140870.3499623464</v>
       </c>
       <c r="J3" t="n">
-        <v>86.5658198898128</v>
+        <v>86.58288258288039</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.84261402766356</v>
+        <v>-26.84031065408323</v>
       </c>
       <c r="M3" t="n">
-        <v>142.5910607017696</v>
+        <v>142.5883104838022</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370431.6762470843</v>
+        <v>370423.347100934</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7036644339412643</v>
+        <v>0.7036767149576085</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.63109379374042</v>
+        <v>80.63341417038299</v>
       </c>
       <c r="D2" t="n">
-        <v>80.63109379374042</v>
+        <v>80.63341417038299</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80.63109379374042</v>
+        <v>80.63341417038299</v>
       </c>
       <c r="H2" t="n">
-        <v>80.63109379374042</v>
+        <v>80.63341417038299</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3588221660792</v>
+        <v>292.3586356017371</v>
       </c>
       <c r="L2" t="n">
-        <v>132782.5732816409</v>
+        <v>132782.2771028971</v>
       </c>
       <c r="M2" t="n">
-        <v>1.583021137492973</v>
+        <v>1.583018618721435</v>
       </c>
       <c r="N2" t="n">
-        <v>334654.5275879899</v>
+        <v>334654.3941262946</v>
       </c>
       <c r="O2" t="n">
-        <v>418533.7444454023</v>
+        <v>418533.5573481031</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687435.5156851306</v>
+        <v>-687434.9970249435</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7131970941938</v>
+        <v>717.7131886493949</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.647996702978</v>
+        <v>1006.647986904226</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402576963581825</v>
+        <v>1.402576966432167</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994980090679527</v>
+        <v>0.9994980077648791</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9119532891522</v>
+        <v>342.9118437755822</v>
       </c>
       <c r="W2" t="n">
-        <v>186145.251531054</v>
+        <v>186144.8364564166</v>
       </c>
       <c r="X2" t="n">
-        <v>5.372148855664863e-06</v>
+        <v>5.37216083473869e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132716.6040540737</v>
+        <v>132716.3078472094</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.534852229887998e-06</v>
+        <v>7.53486904677349e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433385359166461</v>
+        <v>0.003433387546591335</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817172138295677e-05</v>
+        <v>1.817171225452238e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582478594423919</v>
+        <v>0.02582477188359729</v>
       </c>
       <c r="AD2" t="n">
-        <v>132782.5732816409</v>
+        <v>132782.2771028971</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.583021137492973</v>
+        <v>1.583018618721435</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.583021137492973</v>
+        <v>1.583018618721435</v>
       </c>
       <c r="AG2" t="n">
-        <v>334654.5275879899</v>
+        <v>334654.3941262946</v>
       </c>
       <c r="AH2" t="n">
-        <v>418533.7444454023</v>
+        <v>418533.5573481031</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.91734771824</v>
+        <v>3782.917347718239</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7131970941938</v>
+        <v>717.7131886493949</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.647996702978</v>
+        <v>1006.647986904226</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9119532891522</v>
+        <v>342.9118437755822</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994980090679527</v>
+        <v>0.9994980077648791</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817172138295677e-05</v>
+        <v>1.817171225452238e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582478594423919</v>
+        <v>0.02582477188359729</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2351364337706542</v>
+        <v>0.2351432755502995</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2351364337706542</v>
+        <v>0.2351432755502995</v>
       </c>
       <c r="DH2" t="n">
-        <v>183751.5179185763</v>
+        <v>183756.6057931194</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.740246985841676</v>
+        <v>2.740321483642163</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>268.7000974599549</v>
+        <v>268.7456474278891</v>
       </c>
       <c r="DV2" t="n">
-        <v>110.6125403727734</v>
+        <v>110.6291525584737</v>
       </c>
       <c r="DW2" t="n">
-        <v>244.8767205907308</v>
+        <v>244.9191981360981</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.69097061453328</v>
+        <v>65.69147096620603</v>
       </c>
       <c r="DY2" t="n">
-        <v>268.7000974599549</v>
+        <v>268.7456474278891</v>
       </c>
       <c r="DZ2" t="n">
-        <v>110.6125403727734</v>
+        <v>110.6291525584737</v>
       </c>
       <c r="EA2" t="n">
-        <v>244.8767205907308</v>
+        <v>244.9191981360981</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.69097061453328</v>
+        <v>65.69147096620603</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.576881852896</v>
+        <v>259.5646609116388</v>
       </c>
       <c r="ED2" t="n">
-        <v>85923.81012846292</v>
+        <v>85909.1942515511</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.153944438666216</v>
+        <v>1.153802528273169</v>
       </c>
       <c r="EF2" t="n">
-        <v>311223.6003873128</v>
+        <v>311214.8694155907</v>
       </c>
       <c r="EG2" t="n">
-        <v>385684.5599009076</v>
+        <v>385672.3195826713</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.60974820039</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="EI2" t="n">
-        <v>-597750.9450944352</v>
+        <v>-597717.3115005284</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5374573722938</v>
+        <v>716.5371274688445</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.204882805449</v>
+        <v>1005.204458958024</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402864389660472</v>
+        <v>1.402864444036406</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993241596261929</v>
+        <v>0.9993241098749936</v>
       </c>
       <c r="EN2" t="n">
-        <v>323.0917876792388</v>
+        <v>323.0841720274821</v>
       </c>
       <c r="EO2" t="n">
-        <v>120458.3020153335</v>
+        <v>120437.8103090065</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.30162789338262e-06</v>
+        <v>8.303040361115054e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>85865.96317017314</v>
+        <v>85851.35279533897</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.164605814783855e-05</v>
+        <v>1.164804010000751e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003865875024810418</v>
+        <v>0.003866056604515495</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.652911395286231e-05</v>
+        <v>1.652848673076258e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02330775426454219</v>
+        <v>0.02330679825577996</v>
       </c>
       <c r="EV2" t="n">
-        <v>85923.81012846292</v>
+        <v>85909.1942515511</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.153944438666216</v>
+        <v>1.153802528273169</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.153944438666216</v>
+        <v>1.153802528273169</v>
       </c>
       <c r="EY2" t="n">
-        <v>311223.6003873128</v>
+        <v>311214.8694155907</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385684.5599009076</v>
+        <v>385672.3195826713</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.60974820039</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5374573722938</v>
+        <v>716.5371274688445</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.204882805449</v>
+        <v>1005.204458958024</v>
       </c>
       <c r="FD2" t="n">
-        <v>323.0917876792388</v>
+        <v>323.0841720274821</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993241596261929</v>
+        <v>0.9993241098749936</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.652911395286231e-05</v>
+        <v>1.652848673076258e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02330775426454219</v>
+        <v>0.02330679825577996</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5937144863043</v>
+        <v>295.59371268972</v>
       </c>
       <c r="FK2" t="n">
-        <v>135289.0392649998</v>
+        <v>135288.2645338051</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595200319910455</v>
+        <v>1.595191190500187</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3683169159</v>
+        <v>336974.3686084272</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883888</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.60974819837</v>
+        <v>3788.611391213961</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698104.7971203885</v>
+        <v>-698105.275979111</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561751866189</v>
+        <v>717.8561731686661</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.777073037584</v>
+        <v>1006.777060317326</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477415167259</v>
+        <v>1.402477401389951</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995302899917198</v>
+        <v>0.9995302926287699</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027749233136</v>
+        <v>344.80277308124</v>
       </c>
       <c r="FV2" t="n">
-        <v>189651.6968082718</v>
+        <v>189650.6093958601</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.27282390207639e-06</v>
+        <v>5.272854135220244e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135226.2038284973</v>
+        <v>135225.4298057875</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.395016436816235e-06</v>
+        <v>7.395058765471946e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395619870057026</v>
+        <v>0.003395619818947498</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.832925574426003e-05</v>
+        <v>1.832925554536084e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606729613574523</v>
+        <v>0.02606729575337566</v>
       </c>
       <c r="GC2" t="n">
-        <v>135289.0392649998</v>
+        <v>135288.2645338051</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595200319910455</v>
+        <v>1.595191190500187</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595200319910455</v>
+        <v>1.595191190500187</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3683169159</v>
+        <v>336974.3686084272</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883888</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.60974819837</v>
+        <v>3788.611391213961</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561751866189</v>
+        <v>717.8561731686661</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.777073037584</v>
+        <v>1006.777060317326</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027749233136</v>
+        <v>344.80277308124</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995302899917198</v>
+        <v>0.9995302926287699</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.832925574426003e-05</v>
+        <v>1.832925554536084e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606729613574523</v>
+        <v>0.02606729575337566</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5937144863043</v>
+        <v>295.59371268972</v>
       </c>
       <c r="GR2" t="n">
-        <v>135289.0392649998</v>
+        <v>135288.2645338051</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595200319910455</v>
+        <v>1.595191190500187</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3683169159</v>
+        <v>336974.3686084272</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883888</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.60974819837</v>
+        <v>3788.611391213961</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698104.7971203885</v>
+        <v>-698105.275979111</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561751866189</v>
+        <v>717.8561731686661</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.777073037584</v>
+        <v>1006.777060317326</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477415167259</v>
+        <v>1.402477401389951</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995302899917198</v>
+        <v>0.9995302926287699</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027749233136</v>
+        <v>344.80277308124</v>
       </c>
       <c r="HC2" t="n">
-        <v>189651.6968082718</v>
+        <v>189650.6093958601</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.27282390207639e-06</v>
+        <v>5.272854135220244e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135226.2038284973</v>
+        <v>135225.4298057875</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.395016436816235e-06</v>
+        <v>7.395058765471946e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395619870057026</v>
+        <v>0.003395619818947498</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832925574426003e-05</v>
+        <v>1.832925554536084e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606729613574523</v>
+        <v>0.02606729575337566</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135289.0392649998</v>
+        <v>135288.2645338051</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595200319910455</v>
+        <v>1.595191190500187</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595200319910455</v>
+        <v>1.595191190500187</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3683169159</v>
+        <v>336974.3686084272</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310883888</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.60974819837</v>
+        <v>3788.611391213961</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561751866189</v>
+        <v>717.8561731686661</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.777073037584</v>
+        <v>1006.777060317326</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027749233136</v>
+        <v>344.80277308124</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995302899917198</v>
+        <v>0.9995302926287699</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.832925574426003e-05</v>
+        <v>1.832925554536084e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606729613574523</v>
+        <v>0.02606729575337566</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8316525139497409</v>
+        <v>0.8318131022680652</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8316525139497409</v>
+        <v>0.8318131022680652</v>
       </c>
       <c r="HZ2" t="n">
-        <v>490728.0560767308</v>
+        <v>490769.5079053685</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.740246985739369</v>
+        <v>2.740321483639845</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01593440621572722</v>
+        <v>0.01593491776573137</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.788006375194882e-07</v>
+        <v>-1.788187668456536e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01379068410990239</v>
+        <v>0.01379070102821301</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02519148971203202</v>
+        <v>0.02519125734860741</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.05491640123702411</v>
+        <v>0.05491669732378494</v>
       </c>
       <c r="II2" t="n">
-        <v>-4.662686903245117e-12</v>
+        <v>9.242351328708764e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>384211.120276093</v>
+        <v>384198.5252730281</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>268.7000974599549</v>
+        <v>268.7456474278891</v>
       </c>
       <c r="IN2" t="n">
-        <v>110.6125403727734</v>
+        <v>110.6291525584737</v>
       </c>
       <c r="IO2" t="n">
-        <v>244.8767205907308</v>
+        <v>244.9191981360981</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.69097061453328</v>
+        <v>65.69147096620603</v>
       </c>
       <c r="IQ2" t="n">
-        <v>136.2610702545738</v>
+        <v>136.2993637366412</v>
       </c>
       <c r="IR2" t="n">
-        <v>110.6125403727734</v>
+        <v>110.6291525584737</v>
       </c>
       <c r="IS2" t="n">
-        <v>79.57352059073079</v>
+        <v>79.61599813609806</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.73085077728417</v>
+        <v>35.74126781479738</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.5768818531895</v>
+        <v>259.5646609117322</v>
       </c>
       <c r="IV2" t="n">
-        <v>85923.81012864804</v>
+        <v>85909.19425165937</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.153944438667394</v>
+        <v>1.153802528274207</v>
       </c>
       <c r="IX2" t="n">
-        <v>311223.600387523</v>
+        <v>311214.8694156576</v>
       </c>
       <c r="IY2" t="n">
-        <v>385684.5599012021</v>
+        <v>385672.319582765</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.609748200907</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="JA2" t="n">
-        <v>-597750.9450953868</v>
+        <v>-597717.3115007888</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5374573723012</v>
+        <v>716.537127468847</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.204882805455</v>
+        <v>1005.204458958027</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402864389660466</v>
+        <v>1.402864444036405</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993241596261954</v>
+        <v>0.9993241098749941</v>
       </c>
       <c r="JF2" t="n">
-        <v>323.0917876794217</v>
+        <v>323.0841720275404</v>
       </c>
       <c r="JG2" t="n">
-        <v>120458.3020155928</v>
+        <v>120437.8103091583</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.301627893364746e-06</v>
+        <v>8.303040361104588e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>85865.96317035833</v>
+        <v>85851.35279544721</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.164605814781344e-05</v>
+        <v>1.164804009999282e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003865875024806032</v>
+        <v>0.003866056604514106</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.652911395287735e-05</v>
+        <v>1.652848673076738e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02330775426456508</v>
+        <v>0.02330679825578728</v>
       </c>
       <c r="JN2" t="n">
-        <v>85923.81012864804</v>
+        <v>85909.19425165937</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.153944438667394</v>
+        <v>1.153802528274207</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.153944438667394</v>
+        <v>1.153802528274207</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311223.600387523</v>
+        <v>311214.8694156576</v>
       </c>
       <c r="JR2" t="n">
-        <v>385684.5599012021</v>
+        <v>385672.319582765</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.609748200907</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5374573723012</v>
+        <v>716.537127468847</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.204882805455</v>
+        <v>1005.204458958027</v>
       </c>
       <c r="JV2" t="n">
-        <v>323.0917876794217</v>
+        <v>323.0841720275404</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993241596261954</v>
+        <v>0.9993241098749941</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.652911395287735e-05</v>
+        <v>1.652848673076738e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02330775426456508</v>
+        <v>0.02330679825578728</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5937144861957</v>
+        <v>295.5937126896277</v>
       </c>
       <c r="KC2" t="n">
-        <v>135289.0392611913</v>
+        <v>135288.2645370499</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595200319866116</v>
+        <v>1.595191190538965</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3683168457</v>
+        <v>336974.3686083545</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310884893</v>
+        <v>421784.4310882885</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.609748206107</v>
+        <v>3788.611391206739</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698104.7971223644</v>
+        <v>-698105.2759767271</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561751866046</v>
+        <v>717.8561731686702</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.777073037519</v>
+        <v>1006.777060317376</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477415167196</v>
+        <v>1.402477401390013</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995302899917315</v>
+        <v>0.9995302926287576</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027749232465</v>
+        <v>344.8027730811896</v>
       </c>
       <c r="KN2" t="n">
-        <v>189651.6968029265</v>
+        <v>189650.6094004149</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.272823902225002e-06</v>
+        <v>5.272854135093607e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135226.2038246921</v>
+        <v>135225.4298090292</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.395016437024328e-06</v>
+        <v>7.395058765294668e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395619870057934</v>
+        <v>0.003395619818948871</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925574425422e-05</v>
+        <v>1.832925554535684e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606729613573592</v>
+        <v>0.02606729575336983</v>
       </c>
       <c r="KU2" t="n">
-        <v>135289.0392611913</v>
+        <v>135288.2645370499</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595200319866116</v>
+        <v>1.595191190538965</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595200319866116</v>
+        <v>1.595191190538965</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3683168457</v>
+        <v>336974.3686083545</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310884893</v>
+        <v>421784.4310882885</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.609748206107</v>
+        <v>3788.611391206739</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561751866046</v>
+        <v>717.8561731686702</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.777073037519</v>
+        <v>1006.777060317376</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027749232465</v>
+        <v>344.8027730811896</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995302899917315</v>
+        <v>0.9995302926287576</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925574425422e-05</v>
+        <v>1.832925554535684e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606729613573592</v>
+        <v>0.02606729575336983</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.8434080905325</v>
+        <v>268.8363986792695</v>
       </c>
       <c r="LJ2" t="n">
-        <v>97121.33535337326</v>
+        <v>97111.93695760882</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.259312801901262</v>
+        <v>1.259223809917666</v>
       </c>
       <c r="LL2" t="n">
-        <v>317845.6124075595</v>
+        <v>317840.6039677472</v>
       </c>
       <c r="LM2" t="n">
-        <v>394968.0995344617</v>
+        <v>394961.0778602781</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.609748200907</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623574.6570968841</v>
+        <v>-623555.5645456008</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8078692938955</v>
+        <v>716.8076462135101</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.539795469832</v>
+        <v>1005.539513774802</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.40280239453894</v>
+        <v>1.402802438124787</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993679200705254</v>
+        <v>0.9993678881826651</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.8154047089278</v>
+        <v>328.8111127010375</v>
       </c>
       <c r="LU2" t="n">
-        <v>136156.3591079117</v>
+        <v>136143.1831255707</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.344497212997911e-06</v>
+        <v>7.345208015870004e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>97060.25569813937</v>
+        <v>97050.86006805184</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.030287827707804e-05</v>
+        <v>1.030387571319618e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003732878045028454</v>
+        <v>0.003732975114040902</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.700134506766642e-05</v>
+        <v>1.700099023948055e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.02402857190568019</v>
+        <v>0.02402802939874776</v>
       </c>
       <c r="MB2" t="n">
-        <v>97121.33535337326</v>
+        <v>97111.93695760882</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.259312801901262</v>
+        <v>1.259223809917666</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.259312801901262</v>
+        <v>1.259223809917666</v>
       </c>
       <c r="ME2" t="n">
-        <v>317845.6124075595</v>
+        <v>317840.6039677472</v>
       </c>
       <c r="MF2" t="n">
-        <v>394968.0995344617</v>
+        <v>394961.0778602781</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.609748200907</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8078692938955</v>
+        <v>716.8076462135101</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.539795469832</v>
+        <v>1005.539513774802</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.8154047089278</v>
+        <v>328.8111127010375</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993679200705254</v>
+        <v>0.9993678881826651</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.700134506766642e-05</v>
+        <v>1.700099023948055e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.02402857190568019</v>
+        <v>0.02402802939874776</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.8316525139492703</v>
+        <v>0.8318131022679152</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4217410514617437</v>
+        <v>0.4218695174117744</v>
       </c>
       <c r="MR2" t="n">
-        <v>247902.8569735143</v>
+        <v>247951.4387677812</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.740246985742167</v>
+        <v>2.740321483642311</v>
       </c>
       <c r="MT2" t="n">
-        <v>381305.525569436</v>
+        <v>381298.5038950578</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.2439382686703</v>
+        <v>135.241382990721</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.2099308776449</v>
+        <v>123.2104411872931</v>
       </c>
       <c r="MX2" t="n">
-        <v>-55.7694878185722</v>
+        <v>-55.76216329802381</v>
       </c>
       <c r="MY2" t="n">
-        <v>-24.35331109148995</v>
+        <v>-24.3503949775287</v>
       </c>
       <c r="MZ2" t="n">
-        <v>253.0885622982633</v>
+        <v>253.0824127979948</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.2099308776449</v>
+        <v>123.2104411872931</v>
       </c>
       <c r="NB2" t="n">
-        <v>-221.0726878185722</v>
+        <v>-221.0653632980238</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.86786549027963</v>
+        <v>-60.86695731566763</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8579341993909</v>
+        <v>236.8524932929178</v>
       </c>
       <c r="NE2" t="n">
-        <v>60000.00000034187</v>
+        <v>60000.00000235839</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8831275047142197</v>
+        <v>0.8831478561305074</v>
       </c>
       <c r="NG2" t="n">
-        <v>295000.8300260522</v>
+        <v>294996.9303285831</v>
       </c>
       <c r="NH2" t="n">
-        <v>362941.1893513548</v>
+        <v>362935.7240264437</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.930415470872</v>
+        <v>3799.907340922043</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537102.4789585089</v>
+        <v>-537081.8039530038</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0325598144731</v>
+        <v>716.0324894927928</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487930662901</v>
+        <v>1004.487938003345</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852310128422</v>
+        <v>1.402852458154353</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992718935291341</v>
+        <v>0.9992718206172961</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6114441969297</v>
+        <v>308.6078933570417</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96742054682</v>
+        <v>84109.97016187572</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919732901614e-05</v>
+        <v>1.188919694152106e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.39513388769</v>
+        <v>59956.3907615303</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878793858296e-05</v>
+        <v>1.667878915489403e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235349901148776</v>
+        <v>0.004235448073564101</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534216843334258e-05</v>
+        <v>1.53418799608057e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150523150451784</v>
+        <v>0.0215047959797263</v>
       </c>
       <c r="NW2" t="n">
-        <v>60000.00000034187</v>
+        <v>60000.00000235839</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8831275047142197</v>
+        <v>0.8831478561305074</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8831275047142197</v>
+        <v>0.8831478561305074</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295000.8300260522</v>
+        <v>294996.9303285831</v>
       </c>
       <c r="OA2" t="n">
-        <v>362941.1893513548</v>
+        <v>362935.7240264437</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.930415470872</v>
+        <v>3799.907340922043</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0325598144731</v>
+        <v>716.0324894927928</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487930662901</v>
+        <v>1004.487938003345</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6114441969297</v>
+        <v>308.6078933570417</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992718935291341</v>
+        <v>0.9992718206172961</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534216843334258e-05</v>
+        <v>1.53418799608057e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150523150451784</v>
+        <v>0.0215047959797263</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>245.9907770525882</v>
+        <v>245.9849930026037</v>
       </c>
       <c r="OL2" t="n">
-        <v>68471.84074105576</v>
+        <v>68471.70988573991</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9703790567893075</v>
+        <v>0.9704000925178804</v>
       </c>
       <c r="ON2" t="n">
-        <v>301524.698446894</v>
+        <v>301520.5519840055</v>
       </c>
       <c r="OO2" t="n">
-        <v>372086.6507705649</v>
+        <v>372080.8398628716</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.930415479441</v>
+        <v>3799.907340930614</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562661.1848789874</v>
+        <v>-562639.3408064876</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2042311240714</v>
+        <v>716.2041343452496</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.719244217018</v>
+        <v>1004.719227209058</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402839023500499</v>
+        <v>1.402839189315163</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992991868081952</v>
+        <v>0.9992991117212562</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5121000705118</v>
+        <v>314.5083974017762</v>
       </c>
       <c r="OW2" t="n">
-        <v>95987.82074487093</v>
+        <v>95987.64143941646</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041798836810695e-05</v>
+        <v>1.041800782896786e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68423.97391067214</v>
+        <v>68423.8380068892</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.461476062915471e-05</v>
+        <v>1.461478965706828e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004078414450939638</v>
+        <v>0.00407851122034002</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582417315533489e-05</v>
+        <v>1.582387095698598e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223537839633086</v>
+        <v>0.02223492073107199</v>
       </c>
       <c r="PD2" t="n">
-        <v>68471.84074105576</v>
+        <v>68471.70988573991</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9703790567893075</v>
+        <v>0.9704000925178804</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9703790567893075</v>
+        <v>0.9704000925178804</v>
       </c>
       <c r="PG2" t="n">
-        <v>301524.698446894</v>
+        <v>301520.5519840055</v>
       </c>
       <c r="PH2" t="n">
-        <v>372086.6507705649</v>
+        <v>372080.8398628716</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.930415479441</v>
+        <v>3799.907340930614</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2042311240714</v>
+        <v>716.2041343452496</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.719244217018</v>
+        <v>1004.719227209058</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5121000705118</v>
+        <v>314.5083974017762</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992991868081952</v>
+        <v>0.9992991117212562</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582417315533489e-05</v>
+        <v>1.582387095698598e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223537839633086</v>
+        <v>0.02223492073107199</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.8328428881897</v>
+        <v>268.825856573758</v>
       </c>
       <c r="PS2" t="n">
-        <v>93363.31835390125</v>
+        <v>93362.32739684281</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.210603155006655</v>
+        <v>1.210621866706863</v>
       </c>
       <c r="PU2" t="n">
-        <v>317846.7753682486</v>
+        <v>317841.7642540878</v>
       </c>
       <c r="PV2" t="n">
-        <v>394968.0995344556</v>
+        <v>394961.0778600837</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.930415470871</v>
+        <v>3799.907340922042</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626577.9968338785</v>
+        <v>-626552.267964195</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7955086854993</v>
+        <v>716.795312429226</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.462374049933</v>
+        <v>1005.462260706486</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402718574358547</v>
+        <v>1.402718800293161</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993921250369312</v>
+        <v>0.9993920425682649</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.8070440360502</v>
+        <v>328.8027709139527</v>
       </c>
       <c r="QD2" t="n">
-        <v>130883.2369152893</v>
+        <v>130881.8580090135</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.640397835264601e-06</v>
+        <v>7.640478330702886e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93306.83952420129</v>
+        <v>93305.84147133399</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.071732795901448e-05</v>
+        <v>1.071744259770945e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003732514184373436</v>
+        <v>0.003732612029876382</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.700024113767073e-05</v>
+        <v>1.699988873835884e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.0240264272929642</v>
+        <v>0.02402588949812544</v>
       </c>
       <c r="QK2" t="n">
-        <v>93363.31835390125</v>
+        <v>93362.32739684281</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.210603155006655</v>
+        <v>1.210621866706863</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.210603155006655</v>
+        <v>1.210621866706863</v>
       </c>
       <c r="QN2" t="n">
-        <v>317846.7753682486</v>
+        <v>317841.7642540878</v>
       </c>
       <c r="QO2" t="n">
-        <v>394968.0995344556</v>
+        <v>394961.0778600837</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.930415470871</v>
+        <v>3799.907340922042</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7955086854993</v>
+        <v>716.795312429226</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.462374049933</v>
+        <v>1005.462260706486</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.8070440360502</v>
+        <v>328.8027709139527</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993921250369312</v>
+        <v>0.9993920425682649</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.700024113767073e-05</v>
+        <v>1.699988873835884e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.0240264272929642</v>
+        <v>0.02402588949812544</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4382337104205674</v>
+        <v>0.4382304727191615</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8200880656154917</v>
+        <v>0.8200775749607705</v>
       </c>
       <c r="RA2" t="n">
-        <v>379650.1665579213</v>
+        <v>379656.8291341487</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.740246985832427</v>
+        <v>2.740321483815446</v>
       </c>
       <c r="RC2" t="n">
-        <v>381305.525569436</v>
+        <v>381298.5038950578</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02447288254412109</v>
+        <v>0.02448176218509318</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001918870146861146</v>
+        <v>0.001650961266170043</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01189012424434097</v>
+        <v>0.01188958540952276</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03198084350098437</v>
+        <v>0.03198532251478548</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04237646502671277</v>
+        <v>0.04238289577657758</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1126391854630203</v>
+        <v>0.1123905271521491</v>
       </c>
       <c r="RJ2" t="n">
-        <v>-1.263771448600792e-10</v>
+        <v>-6.362500803991367e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360274.8526110455</v>
+        <v>360275.2374101449</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>80.70591936463757</v>
+        <v>80.70890170546805</v>
       </c>
       <c r="D3" t="n">
-        <v>80.70591936463757</v>
+        <v>80.70890170546805</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80.70591936463757</v>
+        <v>80.70890170546805</v>
       </c>
       <c r="H3" t="n">
-        <v>80.70591936463757</v>
+        <v>80.70890170546805</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.352803292074</v>
+        <v>292.3525632808394</v>
       </c>
       <c r="L3" t="n">
-        <v>132773.0183048245</v>
+        <v>132772.6372966434</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582939878981202</v>
+        <v>1.58293663873373</v>
       </c>
       <c r="N3" t="n">
-        <v>334650.221893768</v>
+        <v>334650.0501980619</v>
       </c>
       <c r="O3" t="n">
-        <v>418527.7083781434</v>
+        <v>418527.4676813383</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687418.7828495016</v>
+        <v>-687418.1156036432</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7129246620711</v>
+        <v>717.7129137989224</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.647680590161</v>
+        <v>1006.647667985186</v>
       </c>
       <c r="T3" t="n">
-        <v>1.40257705553252</v>
+        <v>1.402577059198927</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994979670300381</v>
+        <v>0.9994979653537758</v>
       </c>
       <c r="V3" t="n">
-        <v>342.9084201825658</v>
+        <v>342.9082792941097</v>
       </c>
       <c r="W3" t="n">
-        <v>186131.8608714025</v>
+        <v>186131.3269139398</v>
       </c>
       <c r="X3" t="n">
-        <v>5.372535337681358e-06</v>
+        <v>5.372550749946369e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132707.0481705074</v>
+        <v>132706.6671261881</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.535394794669532e-06</v>
+        <v>7.535416431256768e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433455930511445</v>
+        <v>0.003433458744705118</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.817142688337664e-05</v>
+        <v>1.817141513973208e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0258243323232616</v>
+        <v>0.02582431423441312</v>
       </c>
       <c r="AD3" t="n">
-        <v>132773.0183048245</v>
+        <v>132772.6372966434</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582939878981202</v>
+        <v>1.58293663873373</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582939878981202</v>
+        <v>1.58293663873373</v>
       </c>
       <c r="AG3" t="n">
-        <v>334650.221893768</v>
+        <v>334650.0501980619</v>
       </c>
       <c r="AH3" t="n">
-        <v>418527.7083781434</v>
+        <v>418527.4676813383</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7129246620711</v>
+        <v>717.7129137989224</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.647680590161</v>
+        <v>1006.647667985186</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.9084201825658</v>
+        <v>342.9082792941097</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994979670300381</v>
+        <v>0.9994979653537758</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.817142688337664e-05</v>
+        <v>1.817141513973208e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0258243323232616</v>
+        <v>0.02582431423441312</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2353570650778112</v>
+        <v>0.2353658589743314</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353570650778112</v>
+        <v>0.2353658589743314</v>
       </c>
       <c r="DH3" t="n">
-        <v>183915.57880409</v>
+        <v>183922.1174483873</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.742649141248711</v>
+        <v>2.742744876514434</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>270.1969690203192</v>
+        <v>270.2578552651357</v>
       </c>
       <c r="DV3" t="n">
-        <v>111.1593492202664</v>
+        <v>111.1816317120989</v>
       </c>
       <c r="DW3" t="n">
-        <v>246.2722094526586</v>
+        <v>246.3289530330251</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.70711544530951</v>
+        <v>65.70775885676983</v>
       </c>
       <c r="DY3" t="n">
-        <v>270.1969690203192</v>
+        <v>270.2578552651358</v>
       </c>
       <c r="DZ3" t="n">
-        <v>111.1593492202664</v>
+        <v>111.1816317120989</v>
       </c>
       <c r="EA3" t="n">
-        <v>246.2722094526586</v>
+        <v>246.3289530330251</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.70711544530951</v>
+        <v>65.70775885676983</v>
       </c>
       <c r="EC3" t="n">
-        <v>259.1741886714014</v>
+        <v>259.1577614310177</v>
       </c>
       <c r="ED3" t="n">
-        <v>85443.19286420234</v>
+        <v>85423.63021598414</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.149274614538709</v>
+        <v>1.149084391106365</v>
       </c>
       <c r="EF3" t="n">
-        <v>310935.9066800158</v>
+        <v>310924.17071695</v>
       </c>
       <c r="EG3" t="n">
-        <v>385281.2300547056</v>
+        <v>385264.7769223275</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.663779724056</v>
+        <v>3788.665979131976</v>
       </c>
       <c r="EI3" t="n">
-        <v>-596642.6312040016</v>
+        <v>-596597.4170393702</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.526625146895</v>
+        <v>716.5261849444871</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.190956698657</v>
+        <v>1005.190390359638</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402866162150755</v>
+        <v>1.402866233615057</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.9993225259970355</v>
+        <v>0.9993224596061812</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.8407493181359</v>
+        <v>322.8305044617566</v>
       </c>
       <c r="EO3" t="n">
-        <v>119784.4676998639</v>
+        <v>119757.0404699067</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.348327785749603e-06</v>
+        <v>8.350239752720728e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>85385.5278084551</v>
+        <v>85365.97260688485</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.171158656117105e-05</v>
+        <v>1.171426939168205e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003871867274921799</v>
+        <v>0.003872112114258986</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.650844020837662e-05</v>
+        <v>1.650759658794397e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02327624548406793</v>
+        <v>0.0232749598143739</v>
       </c>
       <c r="EV3" t="n">
-        <v>85443.19286420234</v>
+        <v>85423.63021598414</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.149274614538709</v>
+        <v>1.149084391106365</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.149274614538709</v>
+        <v>1.149084391106365</v>
       </c>
       <c r="EY3" t="n">
-        <v>310935.9066800158</v>
+        <v>310924.17071695</v>
       </c>
       <c r="EZ3" t="n">
-        <v>385281.2300547056</v>
+        <v>385264.7769223275</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.663779724056</v>
+        <v>3788.665979131976</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.526625146895</v>
+        <v>716.5261849444871</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.190956698657</v>
+        <v>1005.190390359638</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.8407493181359</v>
+        <v>322.8305044617566</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.9993225259970355</v>
+        <v>0.9993224596061812</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.650844020837662e-05</v>
+        <v>1.650759658794397e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02327624548406793</v>
+        <v>0.0232749598143739</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936554164235</v>
+        <v>295.5936530120543</v>
       </c>
       <c r="FK3" t="n">
-        <v>135263.5641162265</v>
+        <v>135262.527222571</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.59490012141685</v>
+        <v>1.594887902687926</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3779071883</v>
+        <v>336974.3782974639</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.663779722007</v>
+        <v>3788.665979137177</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698120.5447033425</v>
+        <v>-698121.1857272609</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.856108831398</v>
+        <v>717.8561061305912</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776654762905</v>
+        <v>1006.776637738211</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402476962133598</v>
+        <v>1.402476943694145</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995303767050869</v>
+        <v>0.9995303802345211</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8027143550572</v>
+        <v>344.8027118897464</v>
       </c>
       <c r="FV3" t="n">
-        <v>189615.9399073857</v>
+        <v>189614.4845245444</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.273818226929819e-06</v>
+        <v>5.273858706034436e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135200.7519745078</v>
+        <v>135199.7160289117</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.396408565749327e-06</v>
+        <v>7.396465239513933e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395618189367343</v>
+        <v>0.003395618120960651</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.83292492042606e-05</v>
+        <v>1.832924893806398e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0260672835629448</v>
+        <v>0.02606728305119792</v>
       </c>
       <c r="GC3" t="n">
-        <v>135263.5641162265</v>
+        <v>135262.527222571</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.59490012141685</v>
+        <v>1.594887902687926</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.59490012141685</v>
+        <v>1.594887902687926</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3779071883</v>
+        <v>336974.3782974639</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.663779722007</v>
+        <v>3788.665979137177</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.856108831398</v>
+        <v>717.8561061305912</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776654762905</v>
+        <v>1006.776637738211</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8027143550572</v>
+        <v>344.8027118897464</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995303767050869</v>
+        <v>0.9995303802345211</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.83292492042606e-05</v>
+        <v>1.832924893806398e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.0260672835629448</v>
+        <v>0.02606728305119792</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936554164235</v>
+        <v>295.5936530120543</v>
       </c>
       <c r="GR3" t="n">
-        <v>135263.5641162265</v>
+        <v>135262.527222571</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.59490012141685</v>
+        <v>1.594887902687926</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3779071883</v>
+        <v>336974.3782974639</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.663779722007</v>
+        <v>3788.665979137177</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698120.5447033425</v>
+        <v>-698121.1857272609</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.856108831398</v>
+        <v>717.8561061305912</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776654762905</v>
+        <v>1006.776637738211</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402476962133598</v>
+        <v>1.402476943694145</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995303767050869</v>
+        <v>0.9995303802345211</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8027143550572</v>
+        <v>344.8027118897464</v>
       </c>
       <c r="HC3" t="n">
-        <v>189615.9399073857</v>
+        <v>189614.4845245444</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.273818226929819e-06</v>
+        <v>5.273858706034436e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135200.7519745078</v>
+        <v>135199.7160289117</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.396408565749327e-06</v>
+        <v>7.396465239513933e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395618189367343</v>
+        <v>0.003395618120960651</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.83292492042606e-05</v>
+        <v>1.832924893806398e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.0260672835629448</v>
+        <v>0.02606728305119792</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135263.5641162265</v>
+        <v>135262.527222571</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.59490012141685</v>
+        <v>1.594887902687926</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.59490012141685</v>
+        <v>1.594887902687926</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3779071883</v>
+        <v>336974.3782974639</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.663779722007</v>
+        <v>3788.665979137177</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.856108831398</v>
+        <v>717.8561061305912</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776654762905</v>
+        <v>1006.776637738211</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8027143550572</v>
+        <v>344.8027118897464</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995303767050869</v>
+        <v>0.9995303802345211</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.83292492042606e-05</v>
+        <v>1.832924893806398e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.0260672835629448</v>
+        <v>0.02606728305119792</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8369357635025801</v>
+        <v>0.8371509244943465</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8369357635025801</v>
+        <v>0.8371509244943466</v>
       </c>
       <c r="HZ3" t="n">
-        <v>492080.307598928</v>
+        <v>492134.8767850286</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.742649141149297</v>
+        <v>2.742744876440685</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.01595100147929272</v>
+        <v>0.01595166680856752</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.793991208714481e-07</v>
+        <v>-1.794235820811269e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01379123038076276</v>
+        <v>0.01379125216731154</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.0251839910469619</v>
+        <v>0.02518369215051035</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05492604350789651</v>
+        <v>0.05492643170280734</v>
       </c>
       <c r="II3" t="n">
-        <v>-1.096830959390616e-13</v>
+        <v>8.594860934074688e-13</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383796.1521762052</v>
+        <v>383779.2264311311</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>270.1969690203192</v>
+        <v>270.2578552651357</v>
       </c>
       <c r="IN3" t="n">
-        <v>111.1593492202664</v>
+        <v>111.1816317120989</v>
       </c>
       <c r="IO3" t="n">
-        <v>246.2722094526586</v>
+        <v>246.328953033025</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.70711544530951</v>
+        <v>65.70775885676983</v>
       </c>
       <c r="IQ3" t="n">
-        <v>137.5222942319458</v>
+        <v>137.5737180014175</v>
       </c>
       <c r="IR3" t="n">
-        <v>111.1593492202664</v>
+        <v>111.1816317120989</v>
       </c>
       <c r="IS3" t="n">
-        <v>80.96900945265864</v>
+        <v>81.02575303302504</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.06977643776294</v>
+        <v>36.08341452412219</v>
       </c>
       <c r="IU3" t="n">
-        <v>259.1741886713953</v>
+        <v>259.157761430918</v>
       </c>
       <c r="IV3" t="n">
-        <v>85443.19286427675</v>
+        <v>85423.6302138755</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.149274614539737</v>
+        <v>1.149084391078425</v>
       </c>
       <c r="IX3" t="n">
-        <v>310935.9066800112</v>
+        <v>310924.1707168836</v>
       </c>
       <c r="IY3" t="n">
-        <v>385281.2300546993</v>
+        <v>385264.7769222335</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.663779723782</v>
+        <v>3788.665979138694</v>
       </c>
       <c r="JA3" t="n">
-        <v>-596642.6312039137</v>
+        <v>-596597.4170408273</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5266251468952</v>
+        <v>716.5261849444774</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.190956698659</v>
+        <v>1005.19039035959</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402866162150757</v>
+        <v>1.402866233615009</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993225259970349</v>
+        <v>0.9993224596061964</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.8407493181322</v>
+        <v>322.8305044616938</v>
       </c>
       <c r="JG3" t="n">
-        <v>119784.4676999684</v>
+        <v>119757.0404669483</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.348327785742322e-06</v>
+        <v>8.350239752927011e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>85385.52780852937</v>
+        <v>85365.97260477897</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.171158656116087e-05</v>
+        <v>1.171426939197103e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003871867274921904</v>
+        <v>0.003872112114260158</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.650844020837633e-05</v>
+        <v>1.650759658793855e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02327624548406748</v>
+        <v>0.02327495981436537</v>
       </c>
       <c r="JN3" t="n">
-        <v>85443.19286427675</v>
+        <v>85423.6302138755</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.149274614539737</v>
+        <v>1.149084391078425</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.149274614539737</v>
+        <v>1.149084391078425</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310935.9066800112</v>
+        <v>310924.1707168836</v>
       </c>
       <c r="JR3" t="n">
-        <v>385281.2300546993</v>
+        <v>385264.7769222335</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.663779723782</v>
+        <v>3788.665979138694</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5266251468952</v>
+        <v>716.5261849444774</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.190956698659</v>
+        <v>1005.19039035959</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.8407493181322</v>
+        <v>322.8305044616938</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993225259970349</v>
+        <v>0.9993224596061964</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.650844020837633e-05</v>
+        <v>1.650759658793855e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02327624548406748</v>
+        <v>0.02327495981436537</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936554164159</v>
+        <v>295.593653011955</v>
       </c>
       <c r="KC3" t="n">
-        <v>135263.5641129384</v>
+        <v>135262.5272226627</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594900121378103</v>
+        <v>1.594887902689546</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3779071895</v>
+        <v>336974.3782973922</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310882887</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.663779728983</v>
+        <v>3788.665979136645</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698120.5447053754</v>
+        <v>-698121.1857268272</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.8561088313894</v>
+        <v>717.8561061305872</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.77665476285</v>
+        <v>1006.77663773821</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402476962133539</v>
+        <v>1.402476943694151</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995303767050981</v>
+        <v>0.9995303802345196</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8027143550494</v>
+        <v>344.8027118896887</v>
       </c>
       <c r="KN3" t="n">
-        <v>189615.9399027706</v>
+        <v>189614.4845246735</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.27381822705818e-06</v>
+        <v>5.273858706030844e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135200.7519712228</v>
+        <v>135199.7160290031</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.396408565929043e-06</v>
+        <v>7.39646523950893e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395618189367126</v>
+        <v>0.003395618120961813</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924920425975e-05</v>
+        <v>1.832924893805918e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606728356294317</v>
+        <v>0.02606728305119054</v>
       </c>
       <c r="KU3" t="n">
-        <v>135263.5641129384</v>
+        <v>135262.5272226627</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594900121378103</v>
+        <v>1.594887902689546</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594900121378103</v>
+        <v>1.594887902689546</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3779071895</v>
+        <v>336974.3782973922</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310882887</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.663779728983</v>
+        <v>3788.665979136645</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.8561088313894</v>
+        <v>717.8561061305872</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.77665476285</v>
+        <v>1006.77663773821</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8027143550494</v>
+        <v>344.8027118896887</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995303767050981</v>
+        <v>0.9995303802345196</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924920425975e-05</v>
+        <v>1.832924893805918e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606728356294317</v>
+        <v>0.02606728305119054</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.6131313952759</v>
+        <v>268.6037678150111</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96812.91193306976</v>
+        <v>96800.38545737813</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.256391134201574</v>
+        <v>1.256272417348691</v>
       </c>
       <c r="LL3" t="n">
-        <v>317681.0731802304</v>
+        <v>317674.3826605964</v>
       </c>
       <c r="LM3" t="n">
-        <v>394737.4207599143</v>
+        <v>394728.0408645003</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.663779730412</v>
+        <v>3788.665979138073</v>
       </c>
       <c r="LO3" t="n">
-        <v>-622947.4209173336</v>
+        <v>-622921.9161245346</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.8005541560989</v>
+        <v>716.8002572994434</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.530554850928</v>
+        <v>1005.530179706824</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402803819027115</v>
+        <v>1.402803876626908</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993668746948136</v>
+        <v>0.9993668322842393</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.6743722022861</v>
+        <v>328.6686362163239</v>
       </c>
       <c r="LU3" t="n">
-        <v>135723.9677288269</v>
+        <v>135706.4063339561</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.367895418427311e-06</v>
+        <v>7.368848877621358e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96751.92346065571</v>
+        <v>96739.40070672383</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.033571183116221e-05</v>
+        <v>1.033704977180508e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003736069648174567</v>
+        <v>0.003736199541566221</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.698968615092653e-05</v>
+        <v>1.698921198858708e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02401074690398794</v>
+        <v>0.02401002199835683</v>
       </c>
       <c r="MB3" t="n">
-        <v>96812.91193306976</v>
+        <v>96800.38545737813</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.256391134201574</v>
+        <v>1.256272417348691</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.256391134201574</v>
+        <v>1.256272417348691</v>
       </c>
       <c r="ME3" t="n">
-        <v>317681.0731802304</v>
+        <v>317674.3826605964</v>
       </c>
       <c r="MF3" t="n">
-        <v>394737.4207599143</v>
+        <v>394728.0408645003</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.663779730412</v>
+        <v>3788.665979138073</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.8005541560989</v>
+        <v>716.8002572994434</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.530554850928</v>
+        <v>1005.530179706824</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.6743722022861</v>
+        <v>328.6686362163239</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993668746948136</v>
+        <v>0.9993668322842393</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.698968615092653e-05</v>
+        <v>1.698921198858708e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02401074690398794</v>
+        <v>0.02401002199835683</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8369357635025897</v>
+        <v>0.8371509244945091</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.4259756382129729</v>
+        <v>0.4261484466308904</v>
       </c>
       <c r="MR3" t="n">
-        <v>249496.9800270293</v>
+        <v>249561.7165225713</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.742649141151751</v>
+        <v>2.742744876373994</v>
       </c>
       <c r="MT3" t="n">
-        <v>381074.8467948946</v>
+        <v>381065.4668993803</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.5910607017696</v>
+        <v>142.5883104838022</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.2269065845412</v>
+        <v>127.227040949902</v>
       </c>
       <c r="MX3" t="n">
-        <v>-64.38575023236265</v>
+        <v>-64.37939373555128</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.84261402766356</v>
+        <v>-26.84031065408323</v>
       </c>
       <c r="MZ3" t="n">
-        <v>262.5713229161104</v>
+        <v>262.5658275822624</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.2269065845412</v>
+        <v>127.227040949902</v>
       </c>
       <c r="NB3" t="n">
-        <v>-229.6889502323627</v>
+        <v>-229.6825937355513</v>
       </c>
       <c r="NC3" t="n">
-        <v>-61.01751202646685</v>
+        <v>-61.01681427774705</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1851361042121</v>
+        <v>234.1772340501019</v>
       </c>
       <c r="NE3" t="n">
-        <v>57499.99999888273</v>
+        <v>57500.00000191358</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559939624902768</v>
+        <v>0.8560229379286147</v>
       </c>
       <c r="NG3" t="n">
-        <v>293092.1999711929</v>
+        <v>293086.5367190022</v>
       </c>
       <c r="NH3" t="n">
-        <v>360265.5709510564</v>
+        <v>360257.6339574136</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.777670988316</v>
+        <v>3800.743778439768</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529820.0652311925</v>
+        <v>-529790.0314107445</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9876087270081</v>
+        <v>715.9875145150713</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421565411397</v>
+        <v>1004.421583672426</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847693408006</v>
+        <v>1.402847903503886</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992670944441128</v>
+        <v>0.9992669884323008</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.8632621296796</v>
+        <v>306.8580753022279</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.72424553215</v>
+        <v>80604.72777017318</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622071919598e-05</v>
+        <v>1.240622017670331e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.92976977793</v>
+        <v>57457.92367714785</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.74040381198347e-05</v>
+        <v>1.740403996529585e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283550528259207</v>
+        <v>0.004283696361631138</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.519974494187023e-05</v>
+        <v>1.519932414302369e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02128989151197426</v>
+        <v>0.02128925677828856</v>
       </c>
       <c r="NW3" t="n">
-        <v>57499.99999888273</v>
+        <v>57500.00000191358</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559939624902768</v>
+        <v>0.8560229379286147</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559939624902768</v>
+        <v>0.8560229379286147</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293092.1999711929</v>
+        <v>293086.5367190022</v>
       </c>
       <c r="OA3" t="n">
-        <v>360265.5709510564</v>
+        <v>360257.6339574136</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.777670988316</v>
+        <v>3800.743778439768</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9876087270081</v>
+        <v>715.9875145150713</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421565411397</v>
+        <v>1004.421583672426</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.8632621296796</v>
+        <v>306.8580753022279</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992670944441128</v>
+        <v>0.9992669884323008</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.519974494187023e-05</v>
+        <v>1.519932414302369e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02128989151197426</v>
+        <v>0.02128925677828856</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3375267915249</v>
+        <v>244.3292362047404</v>
       </c>
       <c r="OL3" t="n">
-        <v>66682.0287666918</v>
+        <v>66681.98303393557</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9514112696148951</v>
+        <v>0.9514430042007923</v>
       </c>
       <c r="ON3" t="n">
-        <v>300344.185278344</v>
+        <v>300338.2419085866</v>
       </c>
       <c r="OO3" t="n">
-        <v>370431.6762470843</v>
+        <v>370423.347100934</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.777670996991</v>
+        <v>3800.743778458171</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558240.9397687725</v>
+        <v>-558209.4772996701</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1698323149952</v>
+        <v>716.1696999175541</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.669713453088</v>
+        <v>1004.669698061831</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402837243514609</v>
+        <v>1.402837481364388</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.9992959090477112</v>
+        <v>0.9992958000243876</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4521947843357</v>
+        <v>313.4468692651675</v>
       </c>
       <c r="OW3" t="n">
-        <v>93478.32494948276</v>
+        <v>93478.26649245828</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069766708528867e-05</v>
+        <v>1.069767377511947e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66635.18906533027</v>
+        <v>66635.1360968357</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.500708580596332e-05</v>
+        <v>1.500709773514647e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.00410591600789708</v>
+        <v>0.004106056610508821</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.573740359779563e-05</v>
+        <v>1.573696931450209e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210374184827625</v>
+        <v>0.02210308452792521</v>
       </c>
       <c r="PD3" t="n">
-        <v>66682.0287666918</v>
+        <v>66681.98303393557</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9514112696148951</v>
+        <v>0.9514430042007923</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9514112696148951</v>
+        <v>0.9514430042007923</v>
       </c>
       <c r="PG3" t="n">
-        <v>300344.185278344</v>
+        <v>300338.2419085866</v>
       </c>
       <c r="PH3" t="n">
-        <v>370431.6762470843</v>
+        <v>370423.347100934</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.777670996991</v>
+        <v>3800.743778458171</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1698323149952</v>
+        <v>716.1696999175541</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.669713453088</v>
+        <v>1004.669698061831</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4521947843357</v>
+        <v>313.4468692651675</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9992959090477112</v>
+        <v>0.9992958000243876</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.573740359779563e-05</v>
+        <v>1.573696931450209e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210374184827625</v>
+        <v>0.02210308452792521</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.6018581698636</v>
+        <v>268.5925281599584</v>
       </c>
       <c r="PS3" t="n">
-        <v>92809.84587908511</v>
+        <v>92809.51289295257</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.204460602380047</v>
+        <v>1.204498259877039</v>
       </c>
       <c r="PU3" t="n">
-        <v>317682.3093717144</v>
+        <v>317675.6149835139</v>
       </c>
       <c r="PV3" t="n">
-        <v>394737.4207599077</v>
+        <v>394728.0408645003</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.777670988316</v>
+        <v>3800.743778456415</v>
       </c>
       <c r="PX3" t="n">
-        <v>-626158.5241580803</v>
+        <v>-626123.3394793408</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7873582321217</v>
+        <v>716.7871003875961</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.447913946964</v>
+        <v>1005.447783605587</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402714350915441</v>
+        <v>1.402714673662375</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993927849317703</v>
+        <v>0.9993926686889179</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.6654731141655</v>
+        <v>328.6597644934125</v>
       </c>
       <c r="QD3" t="n">
-        <v>130107.0305602703</v>
+        <v>130106.5785765434</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.685979732945824e-06</v>
+        <v>7.686006433653829e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92753.76021879271</v>
+        <v>92753.41665660743</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.078123407224833e-05</v>
+        <v>1.078127400634965e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003735680731403682</v>
+        <v>0.00373581175587594</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698850881726501e-05</v>
+        <v>1.698803818293432e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02400845947366975</v>
+        <v>0.02400774141328277</v>
       </c>
       <c r="QK3" t="n">
-        <v>92809.84587908511</v>
+        <v>92809.51289295257</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.204460602380047</v>
+        <v>1.204498259877039</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.204460602380047</v>
+        <v>1.204498259877039</v>
       </c>
       <c r="QN3" t="n">
-        <v>317682.3093717144</v>
+        <v>317675.6149835139</v>
       </c>
       <c r="QO3" t="n">
-        <v>394737.4207599077</v>
+        <v>394728.0408645003</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.777670988316</v>
+        <v>3800.743778456415</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7873582321217</v>
+        <v>716.7871003875961</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.447913946964</v>
+        <v>1005.447783605587</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.6654731141655</v>
+        <v>328.6597644934125</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993927849317703</v>
+        <v>0.9993926686889179</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698850881726501e-05</v>
+        <v>1.698803818293432e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02400845947366975</v>
+        <v>0.02400774141328277</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4646729612145979</v>
+        <v>0.4646718530818048</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8556622943190523</v>
+        <v>0.8556588492046638</v>
       </c>
       <c r="RA3" t="n">
-        <v>385350.6579255021</v>
+        <v>385366.305530652</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.742649141130225</v>
+        <v>2.742744876572387</v>
       </c>
       <c r="RC3" t="n">
-        <v>381074.8467948946</v>
+        <v>381065.4668993803</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02459644707506529</v>
+        <v>0.02460817238555612</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002168220977476851</v>
+        <v>0.001798488532138476</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01188668130572585</v>
+        <v>0.01188600619569052</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03204646808397132</v>
+        <v>0.03205219182331955</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04267186615225436</v>
+        <v>0.04268056218039946</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1133696835944937</v>
+        <v>0.1130254211171041</v>
       </c>
       <c r="RJ3" t="n">
-        <v>-3.467127973610928e-11</v>
+        <v>-5.939339298155488e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357445.7163326735</v>
+        <v>357446.2252323061</v>
       </c>
     </row>
   </sheetData>
@@ -8686,34 +8686,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01593440621572722</v>
+        <v>0.01593491776573137</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.788006375194882e-07</v>
+        <v>-1.788187668456536e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01379068410990239</v>
+        <v>0.01379070102821301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02519148971203202</v>
+        <v>0.02519125734860741</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05491640123702411</v>
+        <v>0.05491669732378494</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.662686903245117e-12</v>
+        <v>9.242351328708764e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758172367033</v>
+        <v>81.75758172255988</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758172367033</v>
+        <v>81.75758172255988</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758172367033</v>
+        <v>81.75758172255988</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758172367033</v>
+        <v>81.75758172255988</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180725111</v>
+        <v>292.2676180728017</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394375242</v>
+        <v>132637.8394379851</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096100695</v>
+        <v>1.581790096104615</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834750995</v>
+        <v>334589.2834753076</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800038378</v>
+        <v>418442.2800041294</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625804805</v>
+        <v>-687181.9625812884</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704023</v>
+        <v>717.7090713704152</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.643209103394</v>
+        <v>1006.643209103409</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574212</v>
+        <v>1.402578355574208</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723756394</v>
+        <v>0.9994973723756414</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121221973</v>
+        <v>342.858412122368</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165867522</v>
+        <v>185942.4165873981</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054396933e-06</v>
+        <v>5.378009054378252e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565724108</v>
+        <v>132571.8565728717</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095779274e-06</v>
+        <v>7.543079095753048e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038599828</v>
+        <v>0.003434455038596417</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.81672585604674e-05</v>
+        <v>1.816725856048163e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190127461</v>
+        <v>0.02581791190129652</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394375242</v>
+        <v>132637.8394379851</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096100695</v>
+        <v>1.581790096104615</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096100695</v>
+        <v>1.581790096104615</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834750995</v>
+        <v>334589.2834753076</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800038378</v>
+        <v>418442.2800041294</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704023</v>
+        <v>717.7090713704152</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.643209103394</v>
+        <v>1006.643209103409</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121221973</v>
+        <v>342.858412122368</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723756394</v>
+        <v>0.9994973723756414</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.81672585604674e-05</v>
+        <v>1.816725856048163e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190127461</v>
+        <v>0.02581791190129652</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8835,34 +8835,34 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5999999999884</v>
+        <v>295.5999999999883</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950256</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753683</v>
+        <v>1.627145819753687</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.431088489</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368984913</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BI2" t="n">
         <v>0.9995210660216013</v>
@@ -8871,46 +8871,46 @@
         <v>344.8092213939903</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367824</v>
+        <v>193456.8974367829</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309132e-06</v>
+        <v>5.169110087309119e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617458624</v>
+        <v>137934.6617458627</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346996836e-06</v>
+        <v>7.24980934699682e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746387</v>
       </c>
       <c r="BP2" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419705882</v>
+        <v>0.02606863419705881</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950256</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753683</v>
+        <v>1.627145819753687</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753683</v>
+        <v>1.627145819753687</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.431088489</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550243</v>
@@ -8925,7 +8925,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419705882</v>
+        <v>0.02606863419705881</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8936,34 +8936,34 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.5999999999884</v>
+        <v>295.5999999999883</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950256</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753683</v>
+        <v>1.627145819753687</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.431088489</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368984913</v>
+        <v>-696445.9368984908</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.402525623278193</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CP2" t="n">
         <v>0.9995210660216013</v>
@@ -8972,46 +8972,46 @@
         <v>344.8092213939903</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367824</v>
+        <v>193456.8974367829</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309132e-06</v>
+        <v>5.169110087309119e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617458624</v>
+        <v>137934.6617458627</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346996836e-06</v>
+        <v>7.24980934699682e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746387</v>
       </c>
       <c r="CW2" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419705882</v>
+        <v>0.02606863419705881</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950256</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753683</v>
+        <v>1.627145819753687</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753683</v>
+        <v>1.627145819753687</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.431088489</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723357</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362507</v>
+        <v>717.8632360362506</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550243</v>
@@ -9026,7 +9026,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419705882</v>
+        <v>0.02606863419705881</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.238458730580982</v>
+        <v>0.2384587305776245</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.238458730580982</v>
+        <v>0.2384587305776245</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5323180336</v>
+        <v>186219.53231582</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934689301</v>
+        <v>2.776369934658473</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780739370296</v>
+        <v>309.3780814723407</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136401397427</v>
+        <v>126.4136432187136</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727752804894</v>
+        <v>282.3727821580509</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780739370296</v>
+        <v>309.3780814723407</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136401397427</v>
+        <v>126.4136432187136</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727752804894</v>
+        <v>282.3727821580509</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365058327365</v>
+        <v>247.8365035045092</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.2388002447</v>
+        <v>72726.23634437604</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014680261499</v>
+        <v>1.023014655333772</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9124079167</v>
+        <v>302836.9107449276</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.0347721967</v>
+        <v>373927.0324408364</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061228598</v>
+        <v>3790.093061508054</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3863035992</v>
+        <v>-565396.3798800204</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430752135</v>
+        <v>716.2529430249629</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581229083</v>
+        <v>1004.831581161491</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457085544</v>
+        <v>1.4029004570896</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.999281285903341</v>
+        <v>0.9992812858958078</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911161197967</v>
+        <v>315.6911146350207</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5441030844</v>
+        <v>101954.5406597287</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292595462131e-06</v>
+        <v>9.808292926721924e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11140123932</v>
+        <v>72674.10894657449</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005816540258e-05</v>
+        <v>1.376005863016688e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00404855943051019</v>
+        <v>0.004048559468452313</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113121366742e-05</v>
+        <v>1.592113109200434e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288380628286</v>
+        <v>0.02238288362157038</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.2388002447</v>
+        <v>72726.23634437604</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014680261499</v>
+        <v>1.023014655333772</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014680261499</v>
+        <v>1.023014655333772</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9124079167</v>
+        <v>302836.9107449276</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.0347721967</v>
+        <v>373927.0324408364</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061228598</v>
+        <v>3790.093061508054</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430752135</v>
+        <v>716.2529430249629</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581229083</v>
+        <v>1004.831581161491</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911161197967</v>
+        <v>315.6911146350207</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.999281285903341</v>
+        <v>0.9992812858958078</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113121366742e-05</v>
+        <v>1.592113109200434e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288380628286</v>
+        <v>0.02238288362157038</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968649455</v>
+        <v>295.5920968648418</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4166017621</v>
+        <v>134591.4164709897</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979527766565</v>
+        <v>1.586979526224461</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309323524</v>
+        <v>336974.6309325453</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310884888</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061238246</v>
+        <v>3790.0930615177</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1241962045</v>
+        <v>-698537.1242782149</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.8543580609283</v>
+        <v>717.8543580605964</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618721434</v>
+        <v>1006.765618719292</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008976074</v>
+        <v>1.40246500897374</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648232562</v>
+        <v>0.999532664823704</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163636035</v>
+        <v>344.8011163634088</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5203259512</v>
+        <v>188672.5201424008</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188910777239e-06</v>
+        <v>5.300188915933539e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2175693561</v>
+        <v>134529.217438703</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329488328091e-06</v>
+        <v>7.433329495547247e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843604893</v>
+        <v>0.003395573843593945</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665247735e-05</v>
+        <v>1.832907665245345e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184420554</v>
+        <v>0.02606695184415588</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4166017621</v>
+        <v>134591.4164709897</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979527766565</v>
+        <v>1.586979526224461</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979527766565</v>
+        <v>1.586979526224461</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309323524</v>
+        <v>336974.6309325453</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310884888</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061238246</v>
+        <v>3790.0930615177</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.8543580609283</v>
+        <v>717.8543580605964</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618721434</v>
+        <v>1006.765618719292</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163636035</v>
+        <v>344.8011163634088</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648232562</v>
+        <v>0.999532664823704</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665247735e-05</v>
+        <v>1.832907665245345e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184420554</v>
+        <v>0.02606695184415588</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968649455</v>
+        <v>295.5920968648418</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4166017621</v>
+        <v>134591.4164709897</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979527766565</v>
+        <v>1.586979526224461</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309323524</v>
+        <v>336974.6309325453</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310884888</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061238246</v>
+        <v>3790.0930615177</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1241962045</v>
+        <v>-698537.1242782149</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.8543580609283</v>
+        <v>717.8543580605964</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618721434</v>
+        <v>1006.765618719292</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008976074</v>
+        <v>1.40246500897374</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648232562</v>
+        <v>0.999532664823704</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163636035</v>
+        <v>344.8011163634088</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5203259512</v>
+        <v>188672.5201424008</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188910777239e-06</v>
+        <v>5.300188915933539e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2175693561</v>
+        <v>134529.217438703</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329488328091e-06</v>
+        <v>7.433329495547247e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843604893</v>
+        <v>0.003395573843593945</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665247735e-05</v>
+        <v>1.832907665245345e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184420554</v>
+        <v>0.02606695184415588</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4166017621</v>
+        <v>134591.4164709897</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979527766565</v>
+        <v>1.586979526224461</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979527766565</v>
+        <v>1.586979526224461</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309323524</v>
+        <v>336974.6309325453</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310884888</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061238246</v>
+        <v>3790.0930615177</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.8543580609283</v>
+        <v>717.8543580605964</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618721434</v>
+        <v>1006.765618719292</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163636035</v>
+        <v>344.8011163634088</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648232562</v>
+        <v>0.999532664823704</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665247735e-05</v>
+        <v>1.832907665245345e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184420554</v>
+        <v>0.02606695184415588</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,37 +9382,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337325656731</v>
+        <v>0.01619337327803186</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005756137951e-07</v>
+        <v>-1.972005786962968e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827867998</v>
+        <v>0.01379727827867975</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007319032</v>
+        <v>0.02510093007319596</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.055091384407862</v>
+        <v>0.05509138442932886</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578243507109448e-06</v>
+        <v>5.578270409561936e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024712118555</v>
+        <v>0.9800024996903106</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024712118555</v>
+        <v>0.9800024996903106</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1627920019</v>
+        <v>520038.166760413</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991723647</v>
+        <v>2.776362991694188</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885895</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372154.9659074661</v>
+        <v>372154.9635239872</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1473.439624814608</v>
+        <v>1473.794309643214</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02447288254412109</v>
+        <v>0.02448176218509318</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.001918870146861146</v>
+        <v>0.001650961266170043</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01189012424434097</v>
+        <v>0.01188958540952276</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.03198084350098437</v>
+        <v>0.03198532251478548</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04237646502671277</v>
+        <v>0.04238289577657758</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1126391854630203</v>
+        <v>0.1123905271521491</v>
       </c>
       <c r="IR2" t="n">
-        <v>-1.263771448600792e-10</v>
+        <v>-6.362500803991367e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>272.0237988759988</v>
+        <v>272.1054981911216</v>
       </c>
       <c r="IU2" t="n">
-        <v>111.9807685965238</v>
+        <v>112.0122352101065</v>
       </c>
       <c r="IV2" t="n">
-        <v>247.9057373669711</v>
+        <v>247.9811712793418</v>
       </c>
       <c r="IW2" t="n">
-        <v>65.69097061453328</v>
+        <v>65.69147096620603</v>
       </c>
       <c r="IX2" t="n">
-        <v>139.1505361647237</v>
+        <v>139.2206442006066</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9807685965238</v>
+        <v>112.0122352101065</v>
       </c>
       <c r="IZ2" t="n">
-        <v>82.60253736697106</v>
+        <v>82.67797127934182</v>
       </c>
       <c r="JA2" t="n">
-        <v>36.41431542868703</v>
+        <v>36.43161104080271</v>
       </c>
       <c r="JB2" t="n">
-        <v>258.6798004806438</v>
+        <v>258.6576088727595</v>
       </c>
       <c r="JC2" t="n">
-        <v>84891.32835687141</v>
+        <v>84865.41592716285</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.144036530541724</v>
+        <v>1.14378555044239</v>
       </c>
       <c r="JE2" t="n">
-        <v>310582.6203880817</v>
+        <v>310566.7654755973</v>
       </c>
       <c r="JF2" t="n">
-        <v>384785.9575111311</v>
+        <v>384763.7300152691</v>
       </c>
       <c r="JG2" t="n">
-        <v>3788.60974820819</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="JH2" t="n">
-        <v>-595250.8562543854</v>
+        <v>-595189.4333810199</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.5135610059739</v>
+        <v>716.5129730795356</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.174772334186</v>
+        <v>1005.174021539601</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402869152850277</v>
+        <v>1.402869256113278</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993202541132251</v>
+        <v>0.9993201620999611</v>
       </c>
       <c r="JM2" t="n">
-        <v>322.5322906949288</v>
+        <v>322.5184376703078</v>
       </c>
       <c r="JN2" t="n">
-        <v>119010.7780163433</v>
+        <v>118974.4485323949</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.402600307870213e-06</v>
+        <v>8.405166086798171e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>84833.84054353423</v>
+        <v>84807.93774183902</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.178774877564136e-05</v>
+        <v>1.17913490956951e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003879255084897964</v>
+        <v>0.003879587172047727</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.648304722248181e-05</v>
+        <v>1.648190677360455e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02323755459118331</v>
+        <v>0.02323581689505977</v>
       </c>
       <c r="JU2" t="n">
-        <v>84891.32835687141</v>
+        <v>84865.41592716285</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.144036530541724</v>
+        <v>1.14378555044239</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.144036530541724</v>
+        <v>1.14378555044239</v>
       </c>
       <c r="JX2" t="n">
-        <v>310582.6203880817</v>
+        <v>310566.7654755973</v>
       </c>
       <c r="JY2" t="n">
-        <v>384785.9575111311</v>
+        <v>384763.7300152691</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3788.60974820819</v>
+        <v>3788.611391201539</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.5135610059739</v>
+        <v>716.5129730795356</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.174772334186</v>
+        <v>1005.174021539601</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.5322906949288</v>
+        <v>322.5184376703078</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993202541132251</v>
+        <v>0.9993201620999611</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.648304722248181e-05</v>
+        <v>1.648190677360455e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02323755459118331</v>
+        <v>0.02323581689505977</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5937144862958</v>
+        <v>295.5937126897278</v>
       </c>
       <c r="KJ2" t="n">
-        <v>135289.0392613512</v>
+        <v>135288.2645372101</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.595200319867461</v>
+        <v>1.595191190540313</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.3683169174</v>
+        <v>336974.3686084261</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.609748206108</v>
+        <v>3788.61139120674</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698104.7971226433</v>
+        <v>-698105.2759770062</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8561751866093</v>
+        <v>717.8561731686748</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.777073037524</v>
+        <v>1006.777060317382</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402477415167194</v>
+        <v>1.402477401390012</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995302899917322</v>
+        <v>0.9995302926287584</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8027749233049</v>
+        <v>344.8027730812481</v>
       </c>
       <c r="KU2" t="n">
-        <v>189651.6968031506</v>
+        <v>189650.6094006394</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.272823902218772e-06</v>
+        <v>5.272854135087363e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>135226.2038248521</v>
+        <v>135225.4298091894</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.395016437015578e-06</v>
+        <v>7.395058765285906e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003395619870056785</v>
+        <v>0.003395619818947723</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832925574425909e-05</v>
+        <v>1.832925554536171e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606729613574342</v>
+        <v>0.02606729575337734</v>
       </c>
       <c r="LB2" t="n">
-        <v>135289.0392613512</v>
+        <v>135288.2645372101</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.595200319867461</v>
+        <v>1.595191190540313</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.595200319867461</v>
+        <v>1.595191190540313</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.3683169174</v>
+        <v>336974.3686084261</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310885898</v>
+        <v>421784.431088389</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.609748206108</v>
+        <v>3788.61139120674</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8561751866093</v>
+        <v>717.8561731686748</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.777073037524</v>
+        <v>1006.777060317382</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8027749233049</v>
+        <v>344.8027730812481</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995302899917322</v>
+        <v>0.9995302926287584</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832925574425909e-05</v>
+        <v>1.832925554536171e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606729613574342</v>
+        <v>0.02606729575337734</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>268.3436840293074</v>
+        <v>268.3312373615126</v>
       </c>
       <c r="LQ2" t="n">
-        <v>96492.24836012939</v>
+        <v>96476.06636519152</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.253488947408498</v>
+        <v>1.253336941949504</v>
       </c>
       <c r="LS2" t="n">
-        <v>317488.4550543584</v>
+        <v>317479.5606638633</v>
       </c>
       <c r="LT2" t="n">
-        <v>394467.3933685896</v>
+        <v>394454.9239010849</v>
       </c>
       <c r="LU2" t="n">
-        <v>3788.609748207553</v>
+        <v>3788.611391208186</v>
       </c>
       <c r="LV2" t="n">
-        <v>-622182.103814772</v>
+        <v>-622147.8585837294</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.7921572732336</v>
+        <v>716.7917658412351</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.520591112704</v>
+        <v>1005.52010311789</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402806351757293</v>
+        <v>1.402806437010056</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993653998617059</v>
+        <v>0.9993653409297397</v>
       </c>
       <c r="MA2" t="n">
-        <v>328.5092923215933</v>
+        <v>328.5016640302928</v>
       </c>
       <c r="MB2" t="n">
-        <v>135274.4653925433</v>
+        <v>135251.7796504103</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.39237813358324e-06</v>
+        <v>7.393618055043215e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>96431.31799559169</v>
+        <v>96415.14045136985</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.037007500038229e-05</v>
+        <v>1.037181500040839e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003739816486459953</v>
+        <v>0.003739989556296292</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.697604496934081e-05</v>
+        <v>1.697541449470432e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02398989779120141</v>
+        <v>0.02398893405097518</v>
       </c>
       <c r="MI2" t="n">
-        <v>96492.24836012939</v>
+        <v>96476.06636519152</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.253488947408498</v>
+        <v>1.253336941949504</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.253488947408498</v>
+        <v>1.253336941949504</v>
       </c>
       <c r="ML2" t="n">
-        <v>317488.4550543584</v>
+        <v>317479.5606638633</v>
       </c>
       <c r="MM2" t="n">
-        <v>394467.3933685896</v>
+        <v>394454.9239010849</v>
       </c>
       <c r="MN2" t="n">
-        <v>3788.609748207553</v>
+        <v>3788.611391208186</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.7921572732336</v>
+        <v>716.7917658412351</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.520591112704</v>
+        <v>1005.52010311789</v>
       </c>
       <c r="MQ2" t="n">
-        <v>328.5092923215933</v>
+        <v>328.5016640302928</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993653998617059</v>
+        <v>0.9993653409297397</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.697604496934081e-05</v>
+        <v>1.697541449470432e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02398989779120141</v>
+        <v>0.02398893405097518</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8434002012322416</v>
+        <v>0.8436897442411634</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4314313331694932</v>
+        <v>0.4316672411235103</v>
       </c>
       <c r="MY2" t="n">
-        <v>251687.5219636764</v>
+        <v>251776.5062519136</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.750323501511144</v>
+        <v>2.750492804048728</v>
       </c>
       <c r="NA2" t="n">
-        <v>380804.8194033694</v>
+        <v>380792.3499360653</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>165.5472322232933</v>
+        <v>165.5968043882951</v>
       </c>
       <c r="ND2" t="n">
-        <v>139.8410724735391</v>
+        <v>139.868361433672</v>
       </c>
       <c r="NE2" t="n">
-        <v>-88.60226039014685</v>
+        <v>-88.65180817938761</v>
       </c>
       <c r="NF2" t="n">
-        <v>-32.35804204711082</v>
+        <v>-32.36746999137036</v>
       </c>
       <c r="NG2" t="n">
-        <v>289.8680878718491</v>
+        <v>289.9246535042047</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.8410724735391</v>
+        <v>139.868361433672</v>
       </c>
       <c r="NI2" t="n">
-        <v>-253.9054603901469</v>
+        <v>-253.9550081793876</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NK2" t="n">
-        <v>226.383289296176</v>
+        <v>226.3544921900421</v>
       </c>
       <c r="NL2" t="n">
-        <v>50711.01873645155</v>
+        <v>50697.78708150052</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7809539490808161</v>
+        <v>0.7808496599518989</v>
       </c>
       <c r="NN2" t="n">
-        <v>287520.9285070879</v>
+        <v>287500.3334857276</v>
       </c>
       <c r="NO2" t="n">
-        <v>352455.6391851484</v>
+        <v>352426.7715463186</v>
       </c>
       <c r="NP2" t="n">
-        <v>3802.898800362821</v>
+        <v>3802.846127185593</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-508457.100101469</v>
+        <v>-508364.5324496445</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.8712582421911</v>
+        <v>715.8709235003554</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.245344567264</v>
+        <v>1004.245070563954</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402829535345742</v>
+        <v>1.402829808554803</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992549629873728</v>
+        <v>0.9992547691906799</v>
       </c>
       <c r="NV2" t="n">
-        <v>301.7027519856335</v>
+        <v>301.6835330942386</v>
       </c>
       <c r="NW2" t="n">
-        <v>71085.98221978398</v>
+        <v>71067.43429161055</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.406747109307986e-05</v>
+        <v>1.407114256998088e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>50673.28597573625</v>
+        <v>50660.05431180872</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.973426393699488e-05</v>
+        <v>1.973941823759361e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004430769032999656</v>
+        <v>0.004431334048435914</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.478048773990001e-05</v>
+        <v>1.477893208259949e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.0206571489857533</v>
+        <v>0.02065480628673568</v>
       </c>
       <c r="OD2" t="n">
-        <v>50711.01873645155</v>
+        <v>50697.78708150052</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7809539490808161</v>
+        <v>0.7808496599518989</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7809539490808161</v>
+        <v>0.7808496599518989</v>
       </c>
       <c r="OG2" t="n">
-        <v>287520.9285070879</v>
+        <v>287500.3334857276</v>
       </c>
       <c r="OH2" t="n">
-        <v>352455.6391851484</v>
+        <v>352426.7715463186</v>
       </c>
       <c r="OI2" t="n">
-        <v>3802.898800362821</v>
+        <v>3802.846127185593</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.8712582421911</v>
+        <v>715.8709235003554</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.245344567264</v>
+        <v>1004.245070563954</v>
       </c>
       <c r="OL2" t="n">
-        <v>301.7027519856335</v>
+        <v>301.6835330942386</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992549629873728</v>
+        <v>0.9992547691906799</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.478048773990001e-05</v>
+        <v>1.477893208259949e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.0206571489857533</v>
+        <v>0.02065480628673568</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>240.0687857424217</v>
+        <v>240.0481940984207</v>
       </c>
       <c r="OS2" t="n">
-        <v>62242.23062634315</v>
+        <v>62234.98606753688</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.9038626712048643</v>
+        <v>0.9038351644513506</v>
       </c>
       <c r="OU2" t="n">
-        <v>297296.0961401737</v>
+        <v>297281.3559009738</v>
       </c>
       <c r="OV2" t="n">
-        <v>366158.582233745</v>
+        <v>366137.9223583267</v>
       </c>
       <c r="OW2" t="n">
-        <v>3802.898800357998</v>
+        <v>3802.846127180763</v>
       </c>
       <c r="OX2" t="n">
-        <v>-546798.7150695113</v>
+        <v>-546728.4229055884</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.0862822946564</v>
+        <v>716.0859573798784</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.547869937962</v>
+        <v>1004.547671187017</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402830768827114</v>
+        <v>1.402831127791704</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.999288229140222</v>
+        <v>0.9992880400419639</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.6988835367554</v>
+        <v>310.6855392309681</v>
       </c>
       <c r="PD2" t="n">
-        <v>87253.29492288532</v>
+        <v>87243.14504120479</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.146088524088176e-05</v>
+        <v>1.146221860213432e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>62198.01907812196</v>
+        <v>62190.76787848328</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.607768245390548e-05</v>
+        <v>1.607955704862714e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.004178679818078274</v>
+        <v>0.004179039975939961</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.551232145167627e-05</v>
+        <v>1.551123420308046e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02176262141354772</v>
+        <v>0.02176097699543987</v>
       </c>
       <c r="PK2" t="n">
-        <v>62242.23062634315</v>
+        <v>62234.98606753688</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.9038626712048643</v>
+        <v>0.9038351644513506</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9038626712048643</v>
+        <v>0.9038351644513506</v>
       </c>
       <c r="PN2" t="n">
-        <v>297296.0961401737</v>
+        <v>297281.3559009738</v>
       </c>
       <c r="PO2" t="n">
-        <v>366158.582233745</v>
+        <v>366137.9223583267</v>
       </c>
       <c r="PP2" t="n">
-        <v>3802.898800357998</v>
+        <v>3802.846127180763</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.0862822946564</v>
+        <v>716.0859573798784</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.547869937962</v>
+        <v>1004.547671187017</v>
       </c>
       <c r="PS2" t="n">
-        <v>310.6988835367554</v>
+        <v>310.6855392309681</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.999288229140222</v>
+        <v>0.9992880400419639</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.551232145167627e-05</v>
+        <v>1.551123420308046e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02176262141354772</v>
+        <v>0.02176097699543987</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>268.3304540576387</v>
+        <v>268.3180574547142</v>
       </c>
       <c r="PZ2" t="n">
-        <v>91803.71056561623</v>
+        <v>91805.69515763118</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.19260456172222</v>
+        <v>1.192685646063673</v>
       </c>
       <c r="QB2" t="n">
-        <v>317489.899308835</v>
+        <v>317480.9991620713</v>
       </c>
       <c r="QC2" t="n">
-        <v>394467.3933685962</v>
+        <v>394454.9239012728</v>
       </c>
       <c r="QD2" t="n">
-        <v>3802.898800352174</v>
+        <v>3802.84612716796</v>
       </c>
       <c r="QE2" t="n">
-        <v>-625966.1684651519</v>
+        <v>-625917.3617396174</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.776661220269</v>
+        <v>716.7763279823009</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.423563364378</v>
+        <v>1005.423440511821</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402701312362354</v>
+        <v>1.402701793099183</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993959226424876</v>
+        <v>0.9993957533876726</v>
       </c>
       <c r="QJ2" t="n">
-        <v>328.4988789668962</v>
+        <v>328.4912914253977</v>
       </c>
       <c r="QK2" t="n">
-        <v>128695.7632415873</v>
+        <v>128698.5677089917</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.770263564331974e-06</v>
+        <v>7.770094242704872e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>91748.51560154658</v>
+        <v>91750.48348989432</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.089935889908984e-05</v>
+        <v>1.089912512679176e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003739359133978726</v>
+        <v>0.003739533892227769</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.697466409221376e-05</v>
+        <v>1.697403887721063e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.023987214610572</v>
+        <v>0.02398626107575251</v>
       </c>
       <c r="QR2" t="n">
-        <v>91803.71056561623</v>
+        <v>91805.69515763118</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.19260456172222</v>
+        <v>1.192685646063673</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.19260456172222</v>
+        <v>1.192685646063673</v>
       </c>
       <c r="QU2" t="n">
-        <v>317489.899308835</v>
+        <v>317480.9991620713</v>
       </c>
       <c r="QV2" t="n">
-        <v>394467.3933685962</v>
+        <v>394454.9239012728</v>
       </c>
       <c r="QW2" t="n">
-        <v>3802.898800352174</v>
+        <v>3802.84612716796</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.776661220269</v>
+        <v>716.7763279823009</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.423563364378</v>
+        <v>1005.423440511821</v>
       </c>
       <c r="QZ2" t="n">
-        <v>328.4988789668962</v>
+        <v>328.4912914253977</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9993959226424876</v>
+        <v>0.9993957533876726</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.697466409221376e-05</v>
+        <v>1.697403887721063e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.023987214610572</v>
+        <v>0.02398626107575251</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.0245473557093805</v>
+        <v>0.02456072457497682</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.002565106426335826</v>
+        <v>0.002049971667493862</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.0118819684666557</v>
+        <v>0.0118811720647402</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.03211970604556846</v>
+        <v>0.03212665452912928</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04296617903504064</v>
+        <v>0.042977687117681</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1140803156829811</v>
+        <v>0.1135962099540212</v>
       </c>
       <c r="RL2" t="n">
-        <v>1.631764430873317e-05</v>
+        <v>1.626575043321699e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.5487097188665231</v>
+        <v>0.5489089931089034</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9607737614725239</v>
+        <v>0.9610224679171974</v>
       </c>
       <c r="RO2" t="n">
-        <v>399127.3392208595</v>
+        <v>399193.93131141</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.75030434681352</v>
+        <v>2.750473699333966</v>
       </c>
       <c r="RQ2" t="n">
-        <v>380804.8194033694</v>
+        <v>380792.3499360653</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>349243.7410943836</v>
+        <v>349227.4033713583</v>
       </c>
       <c r="RT2" t="n">
-        <v>2666.336740309256</v>
+        <v>2660.486616298731</v>
       </c>
       <c r="RU2" t="n">
-        <v>6.130850777284166</v>
+        <v>6.141267814797374</v>
       </c>
     </row>
     <row r="3">
@@ -10179,34 +10179,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01595100147929272</v>
+        <v>0.01595166680856752</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.793991208714481e-07</v>
+        <v>-1.794235820811269e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01379123038076276</v>
+        <v>0.01379125216731154</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0251839910469619</v>
+        <v>0.02518369215051035</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05492604350789651</v>
+        <v>0.05492643170280734</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.096830959390616e-13</v>
+        <v>8.594860934074688e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172379808</v>
+        <v>81.75758172406147</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172379808</v>
+        <v>81.75758172406147</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172379808</v>
+        <v>81.75758172406147</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172379808</v>
+        <v>81.75758172406147</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180727008</v>
+        <v>292.2676180726793</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394378252</v>
+        <v>132637.8394377915</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096103256</v>
+        <v>1.58179009610297</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834752353</v>
+        <v>334589.2834752199</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800040281</v>
+        <v>418442.2800040066</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625810075</v>
+        <v>-687181.9625809474</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704107</v>
+        <v>717.7090713704097</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103403</v>
+        <v>1006.643209103402</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574209</v>
+        <v>1.40257835557421</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756407</v>
+        <v>0.9994973723756406</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121223087</v>
+        <v>342.858412122296</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.416587174</v>
+        <v>185942.4165871267</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054384735e-06</v>
+        <v>5.378009054386101e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565727118</v>
+        <v>132571.8565726781</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095762148e-06</v>
+        <v>7.543079095764066e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038597602</v>
+        <v>0.003434455038597855</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047669e-05</v>
+        <v>1.816725856047563e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190128891</v>
+        <v>0.02581791190128728</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394378252</v>
+        <v>132637.8394377915</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096103256</v>
+        <v>1.58179009610297</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096103256</v>
+        <v>1.58179009610297</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834752353</v>
+        <v>334589.2834752199</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800040281</v>
+        <v>418442.2800040066</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723464</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704107</v>
+        <v>717.7090713704097</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103403</v>
+        <v>1006.643209103402</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121223087</v>
+        <v>342.858412122296</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756407</v>
+        <v>0.9994973723756406</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047669e-05</v>
+        <v>1.816725856047563e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190128891</v>
+        <v>0.02581791190128728</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10328,22 +10328,22 @@
         <v>1</v>
       </c>
       <c r="AY3" t="n">
-        <v>295.5999999999883</v>
+        <v>295.5999999999884</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BB3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BC3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BD3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="BE3" t="n">
         <v>-696445.9368984908</v>
@@ -10361,46 +10361,46 @@
         <v>0.9995210660216013</v>
       </c>
       <c r="BJ3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367829</v>
+        <v>193456.8974367841</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309119e-06</v>
+        <v>5.169110087309087e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617458627</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.24980934699682e-06</v>
+        <v>7.249809346996776e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746387</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP3" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="BU3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="BV3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="BW3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="BX3" t="n">
         <v>717.8632360362506</v>
@@ -10409,7 +10409,7 @@
         <v>1006.821582550243</v>
       </c>
       <c r="BZ3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CA3" t="n">
         <v>0.9995210660216013</v>
@@ -10418,7 +10418,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="CD3" t="inlineStr">
         <is>
@@ -10429,22 +10429,22 @@
         <v>1</v>
       </c>
       <c r="CF3" t="n">
-        <v>295.5999999999883</v>
+        <v>295.5999999999884</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="CI3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="CJ3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="CK3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="CL3" t="n">
         <v>-696445.9368984908</v>
@@ -10462,46 +10462,46 @@
         <v>0.9995210660216013</v>
       </c>
       <c r="CQ3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367829</v>
+        <v>193456.8974367841</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309119e-06</v>
+        <v>5.169110087309087e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617458627</v>
+        <v>137934.6617458635</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.24980934699682e-06</v>
+        <v>7.249809346996776e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746387</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW3" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950265</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753696</v>
       </c>
       <c r="DB3" t="n">
-        <v>336973.3475828228</v>
+        <v>336973.347582823</v>
       </c>
       <c r="DC3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884892</v>
       </c>
       <c r="DD3" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723355</v>
       </c>
       <c r="DE3" t="n">
         <v>717.8632360362506</v>
@@ -10510,7 +10510,7 @@
         <v>1006.821582550243</v>
       </c>
       <c r="DG3" t="n">
-        <v>344.8092213939903</v>
+        <v>344.8092213939904</v>
       </c>
       <c r="DH3" t="n">
         <v>0.9995210660216013</v>
@@ -10519,7 +10519,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="DK3" t="inlineStr">
         <is>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305812771</v>
+        <v>0.2384587305820541</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305812771</v>
+        <v>0.2384587305820541</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323185308</v>
+        <v>186219.5323191079</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934698134</v>
+        <v>2.776369934706577</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780763972674</v>
+        <v>309.3780770008278</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136411450098</v>
+        <v>126.413641391628</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727775259756</v>
+        <v>282.3727780768518</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780763972674</v>
+        <v>309.3780770008278</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136411450098</v>
+        <v>126.413641391628</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727775259756</v>
+        <v>282.3727780768518</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365050724163</v>
+        <v>247.8365048859394</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23799844383</v>
+        <v>72726.23780190169</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.0230146721238</v>
+        <v>1.023014670129466</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9118648403</v>
+        <v>302836.9117316445</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0340108527</v>
+        <v>373927.0338241244</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061319058</v>
+        <v>3790.093061340815</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3842056778</v>
+        <v>-565396.3836910333</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430588041</v>
+        <v>716.2529430547802</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581207015</v>
+        <v>1004.831581201606</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457086874</v>
+        <v>1.402900457087203</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859008789</v>
+        <v>0.999281285900274</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911156349191</v>
+        <v>315.6911155159975</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5429788853</v>
+        <v>101954.5427033151</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292703613009e-06</v>
+        <v>9.80829273012358e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11059983127</v>
+        <v>72674.11040338532</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005831714054e-05</v>
+        <v>1.376005835433546e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.00404855944290084</v>
+        <v>0.004048559445939806</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113117393641e-05</v>
+        <v>1.592113116419196e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0223828837459621</v>
+        <v>0.02238288373116781</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23799844383</v>
+        <v>72726.23780190169</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.0230146721238</v>
+        <v>1.023014670129466</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.0230146721238</v>
+        <v>1.023014670129466</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9118648403</v>
+        <v>302836.9117316445</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0340108527</v>
+        <v>373927.0338241244</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061319058</v>
+        <v>3790.093061340815</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430588041</v>
+        <v>716.2529430547802</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581207015</v>
+        <v>1004.831581201606</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911156349191</v>
+        <v>315.6911155159975</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859008789</v>
+        <v>0.999281285900274</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113117393641e-05</v>
+        <v>1.592113116419196e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0223828837459621</v>
+        <v>0.02238288373116781</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.592096864847</v>
+        <v>295.5920968650237</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4165593282</v>
+        <v>134591.4165494411</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527266523</v>
+        <v>1.586979527148937</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309323687</v>
+        <v>336974.6309325156</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061328705</v>
+        <v>3790.093061350462</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242225701</v>
+        <v>-698537.1242294699</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580608178</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720737</v>
+        <v>1006.765618720581</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.40246500897532</v>
+        <v>1.402465008975135</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648234006</v>
+        <v>0.9995326648234368</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163635026</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202663919</v>
+        <v>188672.5202525137</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188912450379e-06</v>
+        <v>5.300188912840247e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175269608</v>
+        <v>134529.217517083</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329490670615e-06</v>
+        <v>7.433329491216409e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843602094</v>
+        <v>0.003395573843599124</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665246646e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.0260669518441846</v>
+        <v>0.0260669518441946</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4165593282</v>
+        <v>134591.4165494411</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527266523</v>
+        <v>1.586979527148937</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527266523</v>
+        <v>1.586979527148937</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309323687</v>
+        <v>336974.6309325156</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061328705</v>
+        <v>3790.093061350462</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580608178</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720737</v>
+        <v>1006.765618720581</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163635026</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648234006</v>
+        <v>0.9995326648234368</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665246646e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.0260669518441846</v>
+        <v>0.0260669518441946</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.592096864847</v>
+        <v>295.5920968650237</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4165593282</v>
+        <v>134591.4165494411</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527266523</v>
+        <v>1.586979527148937</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309323687</v>
+        <v>336974.6309325156</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061328705</v>
+        <v>3790.093061350462</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242225701</v>
+        <v>-698537.1242294699</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580608178</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720737</v>
+        <v>1006.765618720581</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.40246500897532</v>
+        <v>1.402465008975135</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648234006</v>
+        <v>0.9995326648234368</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163635026</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202663919</v>
+        <v>188672.5202525137</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188912450379e-06</v>
+        <v>5.300188912840247e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175269608</v>
+        <v>134529.217517083</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329490670615e-06</v>
+        <v>7.433329491216409e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843602094</v>
+        <v>0.003395573843599124</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665246646e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.0260669518441846</v>
+        <v>0.0260669518441946</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4165593282</v>
+        <v>134591.4165494411</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527266523</v>
+        <v>1.586979527148937</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527266523</v>
+        <v>1.586979527148937</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309323687</v>
+        <v>336974.6309325156</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310884891</v>
+        <v>421784.4310886898</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061328705</v>
+        <v>3790.093061350462</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580608178</v>
+        <v>717.8543580608007</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720737</v>
+        <v>1006.765618720581</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163635026</v>
+        <v>344.8011163635952</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648234006</v>
+        <v>0.9995326648234368</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665246646e-05</v>
+        <v>1.832907665247359e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.0260669518441846</v>
+        <v>0.0260669518441946</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,37 +10875,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.0161933732635642</v>
+        <v>0.01619337326527483</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005761844811e-07</v>
+        <v>-1.972005771018351e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868004</v>
+        <v>0.0137972782786801</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007318905</v>
+        <v>0.02510093007318758</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.0550913844148571</v>
+        <v>0.05509138441656541</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.578246130753806e-06</v>
+        <v>5.578238011401393e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024805102451</v>
+        <v>0.9800024827912845</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024805102451</v>
+        <v>0.9800024827912845</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1640884927</v>
+        <v>520038.1644075152</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991716927</v>
+        <v>2.776362991720855</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372154.9651292993</v>
+        <v>372154.9649385501</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1485.077878500393</v>
+        <v>1485.550491196394</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02459644707506529</v>
+        <v>0.02460817238555612</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.002168220977476851</v>
+        <v>0.001798488532138476</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01188668130572585</v>
+        <v>0.01188600619569052</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.03204646808397132</v>
+        <v>0.03205219182331955</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04267186615225436</v>
+        <v>0.04268056218039946</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1133696835944937</v>
+        <v>0.1130254211171041</v>
       </c>
       <c r="IR3" t="n">
-        <v>-3.467127973610928e-11</v>
+        <v>-5.939339298155488e-11</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>272.2090736355035</v>
+        <v>272.2961226117346</v>
       </c>
       <c r="IU3" t="n">
-        <v>111.9871314133752</v>
+        <v>112.0201564211699</v>
       </c>
       <c r="IV3" t="n">
-        <v>248.1061510065851</v>
+        <v>248.186750139409</v>
       </c>
       <c r="IW3" t="n">
-        <v>65.70711544530951</v>
+        <v>65.70775885676983</v>
       </c>
       <c r="IX3" t="n">
-        <v>139.2747152127603</v>
+        <v>139.3491956501195</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.9871314133752</v>
+        <v>112.0201564211699</v>
       </c>
       <c r="IZ3" t="n">
-        <v>82.80295100658509</v>
+        <v>82.88355013940895</v>
       </c>
       <c r="JA3" t="n">
-        <v>36.47911087142808</v>
+        <v>36.49768463565536</v>
       </c>
       <c r="JB3" t="n">
-        <v>258.6294204593774</v>
+        <v>258.6057589892499</v>
       </c>
       <c r="JC3" t="n">
-        <v>84817.68655831701</v>
+        <v>84789.94488878606</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.143266862229154</v>
+        <v>1.142997610595653</v>
       </c>
       <c r="JE3" t="n">
-        <v>310546.6625083028</v>
+        <v>310529.7577817087</v>
       </c>
       <c r="JF3" t="n">
-        <v>384735.5412036395</v>
+        <v>384711.8418935026</v>
       </c>
       <c r="JG3" t="n">
-        <v>3788.663779723782</v>
+        <v>3788.665979145983</v>
       </c>
       <c r="JH3" t="n">
-        <v>-595124.3764617565</v>
+        <v>-595058.999200294</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.5121736272469</v>
+        <v>716.511546876268</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.172733107777</v>
+        <v>1005.171930234216</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.402869023172662</v>
+        <v>1.402869129766859</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993201636386485</v>
+        <v>0.9993200666912159</v>
       </c>
       <c r="JM3" t="n">
-        <v>322.5008365300024</v>
+        <v>322.4860644660382</v>
       </c>
       <c r="JN3" t="n">
-        <v>118907.515953706</v>
+        <v>118868.6217170798</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.409897322128298e-06</v>
+        <v>8.412649070501619e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>84760.2406137605</v>
+        <v>84732.50939439693</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.179798444127651e-05</v>
+        <v>1.180184568056858e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003880006726833178</v>
+        <v>0.003880360928481527</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.648045578914795e-05</v>
+        <v>1.647923968847989e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.0232336040794183</v>
+        <v>0.0232317511270282</v>
       </c>
       <c r="JU3" t="n">
-        <v>84817.68655831701</v>
+        <v>84789.94488878606</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.143266862229154</v>
+        <v>1.142997610595653</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.143266862229154</v>
+        <v>1.142997610595653</v>
       </c>
       <c r="JX3" t="n">
-        <v>310546.6625083028</v>
+        <v>310529.7577817087</v>
       </c>
       <c r="JY3" t="n">
-        <v>384735.5412036395</v>
+        <v>384711.8418935026</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3788.663779723782</v>
+        <v>3788.665979145983</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.5121736272469</v>
+        <v>716.511546876268</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.172733107777</v>
+        <v>1005.171930234216</v>
       </c>
       <c r="KC3" t="n">
-        <v>322.5008365300024</v>
+        <v>322.4860644660382</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993201636386485</v>
+        <v>0.9993200666912159</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.648045578914795e-05</v>
+        <v>1.647923968847989e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.0232336040794183</v>
+        <v>0.0232317511270282</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5936554164159</v>
+        <v>295.5936530120471</v>
       </c>
       <c r="KJ3" t="n">
-        <v>135263.5641129384</v>
+        <v>135262.5272194043</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.594900121378103</v>
+        <v>1.594887902650609</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.3779071895</v>
+        <v>336974.3782974651</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.663779728983</v>
+        <v>3788.665979143896</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698120.5447053754</v>
+        <v>-698121.1857292192</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.8561088313894</v>
+        <v>717.8561061305832</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.77665476285</v>
+        <v>1006.77663773816</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402476962133539</v>
+        <v>1.402476943694089</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995303767050981</v>
+        <v>0.9995303802345319</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8027143550494</v>
+        <v>344.8027118897389</v>
       </c>
       <c r="KU3" t="n">
-        <v>189615.9399027706</v>
+        <v>189614.4845200995</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.27381822705818e-06</v>
+        <v>5.273858706158062e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>135200.7519712228</v>
+        <v>135199.7160257479</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.396408565929043e-06</v>
+        <v>7.396465239687018e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003395618189367126</v>
+        <v>0.003395618120960441</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832924920425975e-05</v>
+        <v>1.832924893806317e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606728356294317</v>
+        <v>0.02606728305119637</v>
       </c>
       <c r="LB3" t="n">
-        <v>135263.5641129384</v>
+        <v>135262.5272194043</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.594900121378103</v>
+        <v>1.594887902650609</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.594900121378103</v>
+        <v>1.594887902650609</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.3779071895</v>
+        <v>336974.3782974651</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883892</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.663779728983</v>
+        <v>3788.665979143896</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.8561088313894</v>
+        <v>717.8561061305832</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.77665476285</v>
+        <v>1006.77663773816</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8027143550494</v>
+        <v>344.8027118897389</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995303767050981</v>
+        <v>0.9995303802345319</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832924920425975e-05</v>
+        <v>1.832924893806317e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606728356294317</v>
+        <v>0.02606728305119637</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>268.3105684565875</v>
+        <v>268.2972690922882</v>
       </c>
       <c r="LQ3" t="n">
-        <v>96432.5630487809</v>
+        <v>96415.13252622675</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.25286827447038</v>
+        <v>1.252703984649615</v>
       </c>
       <c r="LS3" t="n">
-        <v>317464.8294855359</v>
+        <v>317455.3261098765</v>
       </c>
       <c r="LT3" t="n">
-        <v>394434.2643525376</v>
+        <v>394420.941057764</v>
       </c>
       <c r="LU3" t="n">
-        <v>3788.663779730431</v>
+        <v>3788.665979145343</v>
       </c>
       <c r="LV3" t="n">
-        <v>-622104.2680778176</v>
+        <v>-622067.7946497917</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.7910622960688</v>
+        <v>716.790643806127</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.518949160363</v>
+        <v>1005.518424923559</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402806203999563</v>
+        <v>1.402806291645075</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.9993653520370209</v>
+        <v>0.9993652900873996</v>
       </c>
       <c r="MA3" t="n">
-        <v>328.4889879030605</v>
+        <v>328.4808364353253</v>
       </c>
       <c r="MB3" t="n">
-        <v>135190.7701672196</v>
+        <v>135166.3339056462</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.396954679399224e-06</v>
+        <v>7.398291949665935e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>96371.66543872922</v>
+        <v>96354.2398623949</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.037649391496483e-05</v>
+        <v>1.037837049441848e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003740274706518947</v>
+        <v>0.00374045965871353</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.697436497238363e-05</v>
+        <v>1.69736912495063e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02398732772570132</v>
+        <v>0.02398629786964877</v>
       </c>
       <c r="MI3" t="n">
-        <v>96432.5630487809</v>
+        <v>96415.13252622675</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.25286827447038</v>
+        <v>1.252703984649615</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.25286827447038</v>
+        <v>1.252703984649615</v>
       </c>
       <c r="ML3" t="n">
-        <v>317464.8294855359</v>
+        <v>317455.3261098765</v>
       </c>
       <c r="MM3" t="n">
-        <v>394434.2643525376</v>
+        <v>394420.941057764</v>
       </c>
       <c r="MN3" t="n">
-        <v>3788.663779730431</v>
+        <v>3788.665979145343</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.7910622960688</v>
+        <v>716.790643806127</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.518949160363</v>
+        <v>1005.518424923559</v>
       </c>
       <c r="MQ3" t="n">
-        <v>328.4889879030605</v>
+        <v>328.4808364353253</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.9993653520370209</v>
+        <v>0.9993652900873996</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.697436497238363e-05</v>
+        <v>1.69736912495063e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02398732772570132</v>
+        <v>0.02398629786964877</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8440569536636838</v>
+        <v>0.8443655482062258</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4318584618610858</v>
+        <v>0.4321092010002024</v>
       </c>
       <c r="MY3" t="n">
-        <v>251782.236848646</v>
+        <v>251876.1402621605</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.748629348689466</v>
+        <v>2.748792396900561</v>
       </c>
       <c r="NA3" t="n">
-        <v>380771.6903874176</v>
+        <v>380758.367092644</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>165.5221940248003</v>
+        <v>165.5739018595198</v>
       </c>
       <c r="ND3" t="n">
-        <v>139.8272882678394</v>
+        <v>139.8557541369984</v>
       </c>
       <c r="NE3" t="n">
-        <v>-88.57723279966578</v>
+        <v>-88.62891746917228</v>
       </c>
       <c r="NF3" t="n">
-        <v>-32.35327765517756</v>
+        <v>-32.36311505281964</v>
       </c>
       <c r="NG3" t="n">
-        <v>289.8395154268704</v>
+        <v>289.8985206026517</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.8272882678394</v>
+        <v>139.8557541369984</v>
       </c>
       <c r="NI3" t="n">
-        <v>-253.8804327996658</v>
+        <v>-253.9321174691723</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NK3" t="n">
-        <v>226.3584233633971</v>
+        <v>226.3280699506851</v>
       </c>
       <c r="NL3" t="n">
-        <v>50679.21585767846</v>
+        <v>50665.10233412306</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7805498147077333</v>
+        <v>0.7804372511966473</v>
       </c>
       <c r="NN3" t="n">
-        <v>287503.2051862393</v>
+        <v>287481.4976497071</v>
       </c>
       <c r="NO3" t="n">
-        <v>352430.7920009959</v>
+        <v>352400.364933961</v>
       </c>
       <c r="NP3" t="n">
-        <v>3802.968979329704</v>
+        <v>3802.914441596018</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-508403.2702599831</v>
+        <v>-508305.9208200531</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.870860973727</v>
+        <v>715.8705074631338</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.244466106227</v>
+        <v>1004.244172046919</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.4028290867158</v>
+        <v>1.402829368688074</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.999255094776109</v>
+        <v>0.9992548931332247</v>
       </c>
       <c r="NV3" t="n">
-        <v>301.6861733771712</v>
+        <v>301.6659148263301</v>
       </c>
       <c r="NW3" t="n">
-        <v>71041.38795810135</v>
+        <v>71021.60372618533</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.407630155804076e-05</v>
+        <v>1.408022274258086e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>50641.51337524529</v>
+        <v>50627.40010398039</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.974664525900252e-05</v>
+        <v>1.975214998096216e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004431251483286417</v>
+        <v>0.00443184712180831</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.477914110633965e-05</v>
+        <v>1.477750127749253e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.0206551174136086</v>
+        <v>0.02065264794955995</v>
       </c>
       <c r="OD3" t="n">
-        <v>50679.21585767846</v>
+        <v>50665.10233412306</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7805498147077333</v>
+        <v>0.7804372511966473</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7805498147077333</v>
+        <v>0.7804372511966473</v>
       </c>
       <c r="OG3" t="n">
-        <v>287503.2051862393</v>
+        <v>287481.4976497071</v>
       </c>
       <c r="OH3" t="n">
-        <v>352430.7920009959</v>
+        <v>352400.364933961</v>
       </c>
       <c r="OI3" t="n">
-        <v>3802.968979329704</v>
+        <v>3802.914441596018</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.870860973727</v>
+        <v>715.8705074631338</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.244466106227</v>
+        <v>1004.244172046919</v>
       </c>
       <c r="OL3" t="n">
-        <v>301.6861733771712</v>
+        <v>301.6659148263301</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.999255094776109</v>
+        <v>0.9992548931332247</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.477914110633965e-05</v>
+        <v>1.477750127749253e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.0206551174136086</v>
+        <v>0.02065264794955995</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>240.0397804507334</v>
+        <v>240.017984792757</v>
       </c>
       <c r="OS3" t="n">
-        <v>62200.81008056303</v>
+        <v>62192.88197276424</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.9033702391518074</v>
+        <v>0.9033372970306086</v>
       </c>
       <c r="OU3" t="n">
-        <v>297275.4180768605</v>
+        <v>297259.8166913691</v>
       </c>
       <c r="OV3" t="n">
-        <v>366129.5903583877</v>
+        <v>366107.7234225541</v>
       </c>
       <c r="OW3" t="n">
-        <v>3802.96897932476</v>
+        <v>3802.914441591066</v>
       </c>
       <c r="OX3" t="n">
-        <v>-546734.2484996774</v>
+        <v>-546660.1371874065</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.0856861183911</v>
+        <v>716.0853412790769</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.546741548763</v>
+        <v>1004.546524211559</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402830360978169</v>
+        <v>1.402830733020216</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9992883192005153</v>
+        <v>0.9992881221188026</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.68009607983</v>
+        <v>310.665970728921</v>
       </c>
       <c r="PD3" t="n">
-        <v>87195.21252507268</v>
+        <v>87184.1045329624</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.146851955561727e-05</v>
+        <v>1.146998074198172e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>62156.63343946519</v>
+        <v>62148.69868530747</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.608838742809177e-05</v>
+        <v>1.609044149200198e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004179180522285444</v>
+        <v>0.004179561775809519</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.551078494090149e-05</v>
+        <v>1.550963402280823e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02176029258988111</v>
+        <v>0.02175855184993047</v>
       </c>
       <c r="PK3" t="n">
-        <v>62200.81008056303</v>
+        <v>62192.88197276424</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.9033702391518074</v>
+        <v>0.9033372970306086</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9033702391518074</v>
+        <v>0.9033372970306086</v>
       </c>
       <c r="PN3" t="n">
-        <v>297275.4180768605</v>
+        <v>297259.8166913691</v>
       </c>
       <c r="PO3" t="n">
-        <v>366129.5903583877</v>
+        <v>366107.7234225541</v>
       </c>
       <c r="PP3" t="n">
-        <v>3802.96897932476</v>
+        <v>3802.914441591066</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.0856861183911</v>
+        <v>716.0853412790769</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.546741548763</v>
+        <v>1004.546524211559</v>
       </c>
       <c r="PS3" t="n">
-        <v>310.68009607983</v>
+        <v>310.665970728921</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9992883192005153</v>
+        <v>0.9992881221188026</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.551078494090149e-05</v>
+        <v>1.550963402280823e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02176029258988111</v>
+        <v>0.02175855184993047</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>268.297328871121</v>
+        <v>268.2840818262787</v>
       </c>
       <c r="PZ3" t="n">
-        <v>91741.76110404357</v>
+        <v>91743.32102162494</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.191946946798221</v>
+        <v>1.192026280895861</v>
       </c>
       <c r="QB3" t="n">
-        <v>317466.2739982975</v>
+        <v>317456.7646030607</v>
       </c>
       <c r="QC3" t="n">
-        <v>394434.2643526318</v>
+        <v>394420.941057858</v>
       </c>
       <c r="QD3" t="n">
-        <v>3802.968979312061</v>
+        <v>3802.914441585365</v>
       </c>
       <c r="QE3" t="n">
-        <v>-625892.1545765273</v>
+        <v>-625840.468166767</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.7755537921868</v>
+        <v>716.7751961106811</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.421845613144</v>
+        <v>1005.421702935369</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402701083057088</v>
+        <v>1.402701583970711</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993959110412244</v>
+        <v>0.9993957338715529</v>
       </c>
       <c r="QJ3" t="n">
-        <v>328.4785706634814</v>
+        <v>328.4704617990793</v>
       </c>
       <c r="QK3" t="n">
-        <v>128608.8959476094</v>
+        <v>128611.1058958091</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.77551189310702e-06</v>
+        <v>7.775378285061354e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>91686.60201453282</v>
+        <v>91688.14476685908</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.090671895378449e-05</v>
+        <v>1.090653543642703e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003739816907836415</v>
+        <v>0.003740003623895805</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.697298318861465e-05</v>
+        <v>1.697231496271923e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02398464274685627</v>
+        <v>0.02398362355656275</v>
       </c>
       <c r="QR3" t="n">
-        <v>91741.76110404357</v>
+        <v>91743.32102162494</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.191946946798221</v>
+        <v>1.192026280895861</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.191946946798221</v>
+        <v>1.192026280895861</v>
       </c>
       <c r="QU3" t="n">
-        <v>317466.2739982975</v>
+        <v>317456.7646030607</v>
       </c>
       <c r="QV3" t="n">
-        <v>394434.2643526318</v>
+        <v>394420.941057858</v>
       </c>
       <c r="QW3" t="n">
-        <v>3802.968979312061</v>
+        <v>3802.914441585365</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.7755537921868</v>
+        <v>716.7751961106811</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.421845613144</v>
+        <v>1005.421702935369</v>
       </c>
       <c r="QZ3" t="n">
-        <v>328.4785706634814</v>
+        <v>328.4704617990793</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.9993959110412244</v>
+        <v>0.9993957338715529</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.697298318861465e-05</v>
+        <v>1.697231496271923e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02398464274685627</v>
+        <v>0.02398362355656275</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02457225870964919</v>
+        <v>0.02458656284420491</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.002612288258075852</v>
+        <v>0.002073134680881044</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.01187896609684773</v>
+        <v>0.01187810827322624</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.03214632320416457</v>
+        <v>0.03215381377401241</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04300932501302607</v>
+        <v>0.04302170936449465</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1142191612817634</v>
+        <v>0.1137133289368192</v>
       </c>
       <c r="RL3" t="n">
-        <v>1.63766419975786e-05</v>
+        <v>1.632272643961596e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.5486568780129766</v>
+        <v>0.5488651310004353</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9607318498634343</v>
+        <v>0.9609919661276517</v>
       </c>
       <c r="RO3" t="n">
-        <v>398917.8187000111</v>
+        <v>398985.7597526097</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.748610138441413</v>
+        <v>2.748773237898579</v>
       </c>
       <c r="RQ3" t="n">
-        <v>380771.6903874176</v>
+        <v>380758.367092644</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>349215.6432808514</v>
+        <v>349198.3073009928</v>
       </c>
       <c r="RT3" t="n">
-        <v>2819.854618382931</v>
+        <v>2811.408725107496</v>
       </c>
       <c r="RU3" t="n">
-        <v>6.469776437762938</v>
+        <v>6.483414524122189</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4091082072244603</v>
+        <v>0.4089475110421272</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4293639095365397</v>
+        <v>0.4291610489811014</v>
       </c>
     </row>
   </sheetData>
@@ -12811,13 +12811,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>7.714911832360289e-08</v>
+        <v>8.718542077866945e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12839,16 +12839,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>7.227043100310332e-08</v>
+        <v>6.967531601700939e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
